--- a/results_3MHZ_LTE.xlsx
+++ b/results_3MHZ_LTE.xlsx
@@ -173,6 +173,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_Q_1'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_Q_1'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_Q_1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -191,16 +223,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$B$2:$B$6</f>
+              <f>'PWR_Q_1'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_Q_1'!C1</f>
+              <f>'PWR_Q_1'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -209,39 +241,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_Q_1'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_Q_1'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -360,7 +361,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -388,6 +390,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_16_P'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_16_P'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -406,20 +441,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$D$2:$D$16</f>
+              <f>'ACLR_16_P'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!E1</f>
+              <f>'ACLR_16_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -438,21 +473,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$E$2:$E$16</f>
+              <f>'ACLR_16_P'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!F1</f>
+              <f>'ACLR_16_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -470,38 +505,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_16_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_16_P'!$G$2:$G$16</f>
             </numRef>
           </val>
@@ -516,7 +519,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -639,7 +642,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -667,6 +671,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_16_F'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_16_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -685,20 +722,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$D$2:$D$16</f>
+              <f>'ACLR_16_F'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!E1</f>
+              <f>'ACLR_16_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -717,21 +754,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$E$2:$E$16</f>
+              <f>'ACLR_16_F'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!F1</f>
+              <f>'ACLR_16_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -749,38 +786,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_16_F'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_16_F'!$G$2:$G$16</f>
             </numRef>
           </val>
@@ -795,7 +800,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -918,7 +923,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -946,6 +952,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_P'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_P'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -964,20 +1003,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$D$2:$D$16</f>
+              <f>'ACLR_64_P'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!E1</f>
+              <f>'ACLR_64_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -996,21 +1035,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$E$2:$E$16</f>
+              <f>'ACLR_64_P'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!F1</f>
+              <f>'ACLR_64_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1028,38 +1067,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_64_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_64_P'!$G$2:$G$16</f>
             </numRef>
           </val>
@@ -1074,7 +1081,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1197,7 +1204,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1225,6 +1233,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_F'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1243,20 +1284,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$D$2:$D$16</f>
+              <f>'ACLR_64_F'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!E1</f>
+              <f>'ACLR_64_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1275,21 +1316,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$E$2:$E$16</f>
+              <f>'ACLR_64_F'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!F1</f>
+              <f>'ACLR_64_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1307,38 +1348,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_64_F'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_64_F'!$G$2:$G$16</f>
             </numRef>
           </val>
@@ -1353,7 +1362,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1472,6 +1481,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_Q_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_Q_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_Q_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1490,16 +1531,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$B$2:$B$6</f>
+              <f>'EVM_Q_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_P'!C1</f>
+              <f>'EVM_Q_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1508,39 +1549,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_Q_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_Q_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1655,6 +1665,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_Q_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_Q_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_Q_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1673,16 +1715,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$B$2:$B$6</f>
+              <f>'EVM_Q_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_F'!C1</f>
+              <f>'EVM_Q_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1691,39 +1733,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_Q_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_Q_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1838,6 +1849,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_16_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_16_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_16_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1856,16 +1899,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$B$2:$B$6</f>
+              <f>'EVM_16_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_16_P'!C1</f>
+              <f>'EVM_16_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1874,39 +1917,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_16_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_16_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2021,6 +2033,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_16_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_16_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_16_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2039,16 +2083,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$B$2:$B$6</f>
+              <f>'EVM_16_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_16_F'!C1</f>
+              <f>'EVM_16_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2057,39 +2101,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_16_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_16_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2204,6 +2217,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2222,16 +2267,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$B$2:$B$6</f>
+              <f>'EVM_64_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_64_P'!C1</f>
+              <f>'EVM_64_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2240,39 +2285,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_64_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_64_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2387,6 +2401,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2405,16 +2451,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$B$2:$B$6</f>
+              <f>'EVM_64_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_64_F'!C1</f>
+              <f>'EVM_64_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2423,39 +2469,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_64_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_64_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2570,6 +2585,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_Q_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_Q_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_Q_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2588,16 +2635,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$B$2:$B$6</f>
+              <f>'PWR_Q_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_Q_P'!C1</f>
+              <f>'PWR_Q_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2606,39 +2653,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_Q_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_Q_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2753,6 +2769,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_Q_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_Q_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_Q_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2771,16 +2819,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$B$2:$B$6</f>
+              <f>'PWR_Q_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_Q_F'!C1</f>
+              <f>'PWR_Q_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2789,39 +2837,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_Q_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_Q_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2936,6 +2953,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_16_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_16_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_16_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2954,16 +3003,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$B$2:$B$6</f>
+              <f>'PWR_16_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_16_P'!C1</f>
+              <f>'PWR_16_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2972,39 +3021,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_16_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_16_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_16_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3119,6 +3137,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_16_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_16_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_16_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3137,16 +3187,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$B$2:$B$6</f>
+              <f>'PWR_16_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_16_F'!C1</f>
+              <f>'PWR_16_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3155,39 +3205,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_16_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_16_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_16_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3302,6 +3321,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_64_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_64_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_64_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3320,16 +3371,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$B$2:$B$6</f>
+              <f>'PWR_64_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_64_P'!C1</f>
+              <f>'PWR_64_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3338,39 +3389,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_64_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_64_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_64_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3485,6 +3505,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_64_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_64_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_64_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3503,16 +3555,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$B$2:$B$6</f>
+              <f>'PWR_64_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_64_F'!C1</f>
+              <f>'PWR_64_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3521,39 +3573,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_64_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_64_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_64_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3672,7 +3693,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3700,6 +3722,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_Q_P'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_Q_P'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3718,20 +3773,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$D$2:$D$16</f>
+              <f>'ACLR_Q_P'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_P'!E1</f>
+              <f>'ACLR_Q_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3750,21 +3805,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$E$2:$E$16</f>
+              <f>'ACLR_Q_P'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_P'!F1</f>
+              <f>'ACLR_Q_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -3782,38 +3837,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_Q_P'!$G$2:$G$16</f>
             </numRef>
           </val>
@@ -3828,7 +3851,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -3951,7 +3974,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3979,6 +4003,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_Q_F'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_Q_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3997,20 +4054,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$D$2:$D$16</f>
+              <f>'ACLR_Q_F'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!E1</f>
+              <f>'ACLR_Q_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -4029,21 +4086,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$E$2:$E$16</f>
+              <f>'ACLR_Q_F'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!F1</f>
+              <f>'ACLR_Q_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -4061,38 +4118,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_F'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_Q_F'!$G$2:$G$16</f>
             </numRef>
           </val>
@@ -4107,7 +4132,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -4204,7 +4229,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4339,7 +4364,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4366,7 +4391,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4393,7 +4418,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4420,7 +4445,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4447,7 +4472,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4474,7 +4499,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4501,7 +4526,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4528,7 +4553,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4555,7 +4580,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4582,7 +4607,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4609,7 +4634,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4636,7 +4661,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5032,13 +5057,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.82</v>
+        <v>24.91</v>
       </c>
       <c r="C2" t="n">
-        <v>24.75</v>
+        <v>24.84</v>
       </c>
       <c r="D2" t="n">
-        <v>24.74</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="3">
@@ -5046,13 +5071,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.78</v>
+        <v>24.96</v>
       </c>
       <c r="C3" t="n">
-        <v>24.89</v>
+        <v>24.95</v>
       </c>
       <c r="D3" t="n">
-        <v>24.77</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="4">
@@ -5060,13 +5085,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.62</v>
+        <v>24.61</v>
       </c>
       <c r="C4" t="n">
         <v>24.48</v>
       </c>
       <c r="D4" t="n">
-        <v>24.44</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="5">
@@ -5074,13 +5099,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.77</v>
+        <v>24.69</v>
       </c>
       <c r="C5" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D5" t="n">
         <v>24.69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.62</v>
       </c>
     </row>
     <row r="6">
@@ -5088,13 +5113,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="D6" t="n">
         <v>24.82</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.79</v>
       </c>
     </row>
   </sheetData>
@@ -5169,16 +5194,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.94</v>
+        <v>-43.41</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.3</v>
+        <v>-54.15</v>
       </c>
       <c r="E2" t="n">
-        <v>-49.7</v>
+        <v>-48.07</v>
       </c>
       <c r="F2" t="n">
-        <v>-53.64</v>
+        <v>-53.58</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5197,16 +5222,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.51</v>
+        <v>-45.33</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.16</v>
+        <v>-54.99</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.96</v>
+        <v>-49.32</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.46</v>
+        <v>-54.43</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5225,16 +5250,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.47</v>
+        <v>-44.32</v>
       </c>
       <c r="D4" t="n">
-        <v>-55</v>
+        <v>-54.9</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.1</v>
+        <v>-49.19</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.28</v>
+        <v>-54.29</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5253,16 +5278,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.87</v>
+        <v>-43.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-54.68</v>
+        <v>-54.78</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.01</v>
+        <v>-48.86</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.2</v>
+        <v>-54.26</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5281,16 +5306,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.97</v>
+        <v>-45.16</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.66</v>
+        <v>-54.71</v>
       </c>
       <c r="E6" t="n">
-        <v>-50.37</v>
+        <v>-49.5</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.23</v>
+        <v>-54.14</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5309,16 +5334,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-45.19</v>
+        <v>-47.47</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.86</v>
+        <v>-55.87</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.77</v>
+        <v>-50.73</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.4</v>
+        <v>-55.22</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5337,16 +5362,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-47.07</v>
+        <v>-45.26</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.55</v>
+        <v>-54.59</v>
       </c>
       <c r="E8" t="n">
-        <v>-50.35</v>
+        <v>-49.17</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.94</v>
+        <v>-53.84</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5365,16 +5390,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.3</v>
+        <v>-44.6</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.91</v>
+        <v>-54.76</v>
       </c>
       <c r="E9" t="n">
-        <v>-48.95</v>
+        <v>-48.84</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.26</v>
+        <v>-53.99</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5393,16 +5418,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.94</v>
+        <v>-41.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.2</v>
+        <v>-53.71</v>
       </c>
       <c r="E10" t="n">
-        <v>-50.06</v>
+        <v>-47.94</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.51</v>
+        <v>-53.09</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5421,16 +5446,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-45.58</v>
+        <v>-46.15</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.3</v>
+        <v>-54.52</v>
       </c>
       <c r="E11" t="n">
-        <v>-49.15</v>
+        <v>-49.8</v>
       </c>
       <c r="F11" t="n">
-        <v>-53.67</v>
+        <v>-53.69</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5449,16 +5474,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-45.99</v>
+        <v>-46.86</v>
       </c>
       <c r="D12" t="n">
-        <v>-54.98</v>
+        <v>-55.29</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.09</v>
+        <v>-50.49</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.42</v>
+        <v>-54.38</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5477,16 +5502,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-43.77</v>
+        <v>-41.67</v>
       </c>
       <c r="D13" t="n">
-        <v>-56.37</v>
+        <v>-55.87</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.28</v>
+        <v>-46.23</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.86</v>
+        <v>-55.4</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5505,16 +5530,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-46.34</v>
+        <v>-46.84</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.98</v>
+        <v>-55.17</v>
       </c>
       <c r="E14" t="n">
-        <v>-50.24</v>
+        <v>-50.4</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.3</v>
+        <v>-54.49</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5533,16 +5558,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-43.63</v>
+        <v>-43.74</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.89</v>
+        <v>-54.76</v>
       </c>
       <c r="E15" t="n">
-        <v>-49.53</v>
+        <v>-49.58</v>
       </c>
       <c r="F15" t="n">
-        <v>-54.09</v>
+        <v>-54.15</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5561,16 +5586,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.45</v>
+        <v>-38.7</v>
       </c>
       <c r="D16" t="n">
         <v>-54.82</v>
       </c>
       <c r="E16" t="n">
-        <v>-48.05</v>
+        <v>-46.43</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.48</v>
+        <v>-54.47</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5651,16 +5676,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.76</v>
+        <v>-44.64</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.26</v>
+        <v>-44.27</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.54</v>
+        <v>-45.51</v>
       </c>
       <c r="F2" t="n">
-        <v>-45.1</v>
+        <v>-44.94</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5679,16 +5704,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-42.24</v>
+        <v>-46.34</v>
       </c>
       <c r="D3" t="n">
-        <v>-42.49</v>
+        <v>-46.63</v>
       </c>
       <c r="E3" t="n">
-        <v>-43.14</v>
+        <v>-47.67</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.44</v>
+        <v>-47.46</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5707,16 +5732,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-38.35</v>
+        <v>-38.27</v>
       </c>
       <c r="D4" t="n">
-        <v>-38.4</v>
+        <v>-38.19</v>
       </c>
       <c r="E4" t="n">
-        <v>-39.96</v>
+        <v>-39.79</v>
       </c>
       <c r="F4" t="n">
-        <v>-40.15</v>
+        <v>-39.86</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5735,16 +5760,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.22</v>
+        <v>-41.16</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.4</v>
+        <v>-40.83</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.2</v>
+        <v>-42.45</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.06</v>
+        <v>-41.87</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5763,16 +5788,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.73</v>
+        <v>-42.17</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.44</v>
+        <v>-41.79</v>
       </c>
       <c r="E6" t="n">
-        <v>-44.01</v>
+        <v>-43.42</v>
       </c>
       <c r="F6" t="n">
-        <v>-43.7</v>
+        <v>-43.19</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5791,16 +5816,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.4</v>
+        <v>-43.09</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.26</v>
+        <v>-44.89</v>
       </c>
       <c r="E7" t="n">
-        <v>-44.02</v>
+        <v>-43.85</v>
       </c>
       <c r="F7" t="n">
-        <v>-45.8</v>
+        <v>-45.71</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5819,16 +5844,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-41.51</v>
+        <v>-42.61</v>
       </c>
       <c r="D8" t="n">
-        <v>-41.92</v>
+        <v>-42.78</v>
       </c>
       <c r="E8" t="n">
-        <v>-42.54</v>
+        <v>-43.42</v>
       </c>
       <c r="F8" t="n">
-        <v>-42.63</v>
+        <v>-43.39</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5847,16 +5872,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-41.05</v>
+        <v>-42</v>
       </c>
       <c r="D9" t="n">
-        <v>-40.62</v>
+        <v>-41.45</v>
       </c>
       <c r="E9" t="n">
-        <v>-42.7</v>
+        <v>-43.64</v>
       </c>
       <c r="F9" t="n">
-        <v>-42.41</v>
+        <v>-43.09</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5875,16 +5900,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.18</v>
+        <v>-39.41</v>
       </c>
       <c r="D10" t="n">
-        <v>-40.49</v>
+        <v>-40.43</v>
       </c>
       <c r="E10" t="n">
-        <v>-40.73</v>
+        <v>-41</v>
       </c>
       <c r="F10" t="n">
-        <v>-41.99</v>
+        <v>-42.02</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5903,16 +5928,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.63</v>
+        <v>-45.55</v>
       </c>
       <c r="D11" t="n">
-        <v>-44.52</v>
+        <v>-45.22</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.78</v>
+        <v>-46.64</v>
       </c>
       <c r="F11" t="n">
-        <v>-45.52</v>
+        <v>-46.18</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5931,16 +5956,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43.09</v>
+        <v>-41.68</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.68</v>
+        <v>-42.09</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.99</v>
+        <v>-42.65</v>
       </c>
       <c r="F12" t="n">
-        <v>-44.75</v>
+        <v>-43.32</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5959,16 +5984,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-40.39</v>
+        <v>-40.12</v>
       </c>
       <c r="D13" t="n">
-        <v>-43.53</v>
+        <v>-43.27</v>
       </c>
       <c r="E13" t="n">
-        <v>-40.82</v>
+        <v>-40.55</v>
       </c>
       <c r="F13" t="n">
-        <v>-44.06</v>
+        <v>-43.88</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5987,16 +6012,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-43.02</v>
+        <v>-42.21</v>
       </c>
       <c r="D14" t="n">
-        <v>-43.69</v>
+        <v>-42.65</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.21</v>
+        <v>-43.36</v>
       </c>
       <c r="F14" t="n">
-        <v>-44.7</v>
+        <v>-43.74</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6015,16 +6040,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-42.06</v>
+        <v>-41.63</v>
       </c>
       <c r="D15" t="n">
-        <v>-42.52</v>
+        <v>-41.51</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.89</v>
+        <v>-43.35</v>
       </c>
       <c r="F15" t="n">
-        <v>-44.28</v>
+        <v>-43.14</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6043,16 +6068,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.74</v>
+        <v>-38.96</v>
       </c>
       <c r="D16" t="n">
-        <v>-37.94</v>
+        <v>-37.49</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.47</v>
+        <v>-40.55</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.52</v>
+        <v>-39.25</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6133,16 +6158,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.96</v>
+        <v>-45.2</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.16</v>
+        <v>-54.38</v>
       </c>
       <c r="E2" t="n">
-        <v>-49.4</v>
+        <v>-49.03</v>
       </c>
       <c r="F2" t="n">
-        <v>-53.68</v>
+        <v>-53.87</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6161,16 +6186,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.92</v>
+        <v>-45.69</v>
       </c>
       <c r="D3" t="n">
-        <v>-54.74</v>
+        <v>-54.77</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.06</v>
+        <v>-48.84</v>
       </c>
       <c r="F3" t="n">
-        <v>-54</v>
+        <v>-53.89</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6189,16 +6214,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-40.46</v>
+        <v>-41.93</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.47</v>
+        <v>-54.19</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.8</v>
+        <v>-47.41</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.33</v>
+        <v>-53.87</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6217,16 +6242,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-47.07</v>
+        <v>-44.63</v>
       </c>
       <c r="D5" t="n">
-        <v>-53.96</v>
+        <v>-53.72</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.6</v>
+        <v>-48.9</v>
       </c>
       <c r="F5" t="n">
-        <v>-53.59</v>
+        <v>-53.34</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6245,16 +6270,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.46</v>
+        <v>-44.38</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.43</v>
+        <v>-54.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.52</v>
+        <v>-48.87</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.15</v>
+        <v>-54.06</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6273,16 +6298,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.95</v>
+        <v>-43.97</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.22</v>
+        <v>-55.35</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.53</v>
+        <v>-48.2</v>
       </c>
       <c r="F7" t="n">
-        <v>-54.93</v>
+        <v>-54.98</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6301,16 +6326,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-43.96</v>
+        <v>-44.63</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.4</v>
+        <v>-54.64</v>
       </c>
       <c r="E8" t="n">
-        <v>-48.39</v>
+        <v>-48.11</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.72</v>
+        <v>-53.98</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6329,16 +6354,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.68</v>
+        <v>-43.44</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.61</v>
+        <v>-54.56</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.92</v>
+        <v>-48.21</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.11</v>
+        <v>-53.95</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6357,16 +6382,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-43.04</v>
+        <v>-42.77</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.74</v>
+        <v>-53.78</v>
       </c>
       <c r="E10" t="n">
-        <v>-48.19</v>
+        <v>-47.69</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.17</v>
+        <v>-53.12</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6385,16 +6410,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-43.57</v>
+        <v>-44.96</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.24</v>
+        <v>-54.17</v>
       </c>
       <c r="E11" t="n">
-        <v>-48.36</v>
+        <v>-49.42</v>
       </c>
       <c r="F11" t="n">
-        <v>-53.55</v>
+        <v>-53.33</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6413,16 +6438,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43.52</v>
+        <v>-44.95</v>
       </c>
       <c r="D12" t="n">
-        <v>-54.36</v>
+        <v>-54.86</v>
       </c>
       <c r="E12" t="n">
-        <v>-47.91</v>
+        <v>-48.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.1</v>
+        <v>-54.16</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6441,16 +6466,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.22</v>
+        <v>-42.59</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.27</v>
+        <v>-55.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-44.9</v>
+        <v>-45.69</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.36</v>
+        <v>-55.21</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6469,16 +6494,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-43.04</v>
+        <v>-42.98</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.66</v>
+        <v>-54.26</v>
       </c>
       <c r="E14" t="n">
-        <v>-47.83</v>
+        <v>-47.46</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.17</v>
+        <v>-53.76</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6497,16 +6522,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-44.2</v>
+        <v>-44.24</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.63</v>
+        <v>-54.41</v>
       </c>
       <c r="E15" t="n">
-        <v>-49.43</v>
+        <v>-49.34</v>
       </c>
       <c r="F15" t="n">
-        <v>-53.85</v>
+        <v>-53.84</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6525,16 +6550,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.93</v>
+        <v>-37.98</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.5</v>
+        <v>-54.19</v>
       </c>
       <c r="E16" t="n">
-        <v>-45.57</v>
+        <v>-45.05</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.07</v>
+        <v>-53.67</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6615,16 +6640,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.1</v>
+        <v>-45.06</v>
       </c>
       <c r="D2" t="n">
-        <v>-43.32</v>
+        <v>-44.54</v>
       </c>
       <c r="E2" t="n">
-        <v>-44.86</v>
+        <v>-45.82</v>
       </c>
       <c r="F2" t="n">
-        <v>-44.31</v>
+        <v>-45.34</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6643,16 +6668,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-44.05</v>
+        <v>-45.9</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.05</v>
+        <v>-46.12</v>
       </c>
       <c r="E3" t="n">
-        <v>-44.77</v>
+        <v>-46.85</v>
       </c>
       <c r="F3" t="n">
-        <v>-45</v>
+        <v>-46.96</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6671,16 +6696,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-37.8</v>
+        <v>-38.13</v>
       </c>
       <c r="D4" t="n">
-        <v>-38.1</v>
+        <v>-37.94</v>
       </c>
       <c r="E4" t="n">
-        <v>-39.47</v>
+        <v>-39.92</v>
       </c>
       <c r="F4" t="n">
-        <v>-39.8</v>
+        <v>-39.84</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6699,16 +6724,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.33</v>
+        <v>-44.43</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.38</v>
+        <v>-43.93</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.4</v>
+        <v>-45.6</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.22</v>
+        <v>-44.64</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6727,16 +6752,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-44.69</v>
+        <v>-47.18</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.42</v>
+        <v>-46.47</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.94</v>
+        <v>-47.84</v>
       </c>
       <c r="F6" t="n">
-        <v>-45.82</v>
+        <v>-47.35</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6755,16 +6780,16 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>-42.61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-42.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-43.26</v>
+      </c>
+      <c r="F7" t="n">
         <v>-43.84</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-43.74</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-44.57</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-44.79</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6783,16 +6808,16 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>-42.28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-42.54</v>
+      </c>
+      <c r="E8" t="n">
         <v>-43.4</v>
       </c>
-      <c r="D8" t="n">
-        <v>-43.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-44.67</v>
-      </c>
       <c r="F8" t="n">
-        <v>-44.64</v>
+        <v>-43.57</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6811,16 +6836,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.73</v>
+        <v>-42.29</v>
       </c>
       <c r="D9" t="n">
-        <v>-42.2</v>
+        <v>-42.14</v>
       </c>
       <c r="E9" t="n">
-        <v>-44.29</v>
+        <v>-43.96</v>
       </c>
       <c r="F9" t="n">
-        <v>-43.87</v>
+        <v>-43.81</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6839,16 +6864,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-40.17</v>
+        <v>-39.88</v>
       </c>
       <c r="D10" t="n">
-        <v>-40.96</v>
+        <v>-41.1</v>
       </c>
       <c r="E10" t="n">
-        <v>-41.85</v>
+        <v>-41.56</v>
       </c>
       <c r="F10" t="n">
-        <v>-42.71</v>
+        <v>-42.77</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6867,16 +6892,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-43.2</v>
+        <v>-44.86</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.94</v>
+        <v>-44.4</v>
       </c>
       <c r="E11" t="n">
-        <v>-44.44</v>
+        <v>-46</v>
       </c>
       <c r="F11" t="n">
-        <v>-43.85</v>
+        <v>-45.39</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6895,16 +6920,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43.1</v>
+        <v>-43.32</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.74</v>
+        <v>-44.05</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.97</v>
+        <v>-44.33</v>
       </c>
       <c r="F12" t="n">
-        <v>-44.68</v>
+        <v>-45.06</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6923,16 +6948,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-40.34</v>
+        <v>-38.88</v>
       </c>
       <c r="D13" t="n">
-        <v>-43.99</v>
+        <v>-41.77</v>
       </c>
       <c r="E13" t="n">
-        <v>-40.91</v>
+        <v>-39.4</v>
       </c>
       <c r="F13" t="n">
-        <v>-44.39</v>
+        <v>-42.36</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6951,16 +6976,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.87</v>
+        <v>-42.74</v>
       </c>
       <c r="D14" t="n">
-        <v>-43.33</v>
+        <v>-43.18</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.02</v>
+        <v>-43.81</v>
       </c>
       <c r="F14" t="n">
-        <v>-44.27</v>
+        <v>-44.22</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6979,16 +7004,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.63</v>
+        <v>-42.15</v>
       </c>
       <c r="D15" t="n">
-        <v>-40.47</v>
+        <v>-42.29</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.18</v>
+        <v>-43.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-42.11</v>
+        <v>-44</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7007,16 +7032,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.43</v>
+        <v>-38.47</v>
       </c>
       <c r="D16" t="n">
-        <v>-37.61</v>
+        <v>-37.4</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.11</v>
+        <v>-40.16</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.24</v>
+        <v>-39.15</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -7072,13 +7097,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="C2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.92</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="3">
@@ -7086,13 +7111,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.97</v>
+        <v>3.32</v>
       </c>
       <c r="C3" t="n">
-        <v>2.69</v>
+        <v>2.46</v>
       </c>
       <c r="D3" t="n">
-        <v>3.07</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="4">
@@ -7100,13 +7125,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.35</v>
+        <v>2.82</v>
       </c>
       <c r="C4" t="n">
-        <v>2.97</v>
+        <v>2.59</v>
       </c>
       <c r="D4" t="n">
-        <v>2.88</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="5">
@@ -7114,13 +7139,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.79</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.47</v>
-      </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="6">
@@ -7128,13 +7153,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.5</v>
+        <v>3.02</v>
       </c>
       <c r="C6" t="n">
-        <v>2.29</v>
+        <v>3.03</v>
       </c>
       <c r="D6" t="n">
-        <v>2.65</v>
+        <v>2.94</v>
       </c>
     </row>
   </sheetData>
@@ -7184,13 +7209,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D2" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3">
@@ -7198,13 +7223,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="D3" t="n">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -7212,13 +7237,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="5">
@@ -7226,13 +7251,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="C5" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="D5" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -7240,13 +7265,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -7296,13 +7321,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="C2" t="n">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="D2" t="n">
-        <v>2.94</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="3">
@@ -7310,13 +7335,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.73</v>
+        <v>3.37</v>
       </c>
       <c r="C3" t="n">
-        <v>2.89</v>
+        <v>3.33</v>
       </c>
       <c r="D3" t="n">
-        <v>3.38</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4">
@@ -7324,13 +7349,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.87</v>
+        <v>13.75</v>
       </c>
       <c r="C4" t="n">
-        <v>3.28</v>
+        <v>2.77</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="5">
@@ -7338,13 +7363,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.45</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.95</v>
-      </c>
       <c r="D5" t="n">
-        <v>2.73</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -7352,13 +7377,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="C6" t="n">
-        <v>3.53</v>
+        <v>2.78</v>
       </c>
       <c r="D6" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
     </row>
   </sheetData>
@@ -7408,13 +7433,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="C2" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
@@ -7422,13 +7447,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.15</v>
+        <v>1.71</v>
       </c>
       <c r="C3" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="D3" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -7436,13 +7461,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="C4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -7450,13 +7475,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="C5" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -7464,13 +7489,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="C6" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
     </row>
   </sheetData>
@@ -7520,13 +7545,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10.42</v>
+        <v>2.58</v>
       </c>
       <c r="C2" t="n">
-        <v>7.34</v>
+        <v>2.43</v>
       </c>
       <c r="D2" t="n">
-        <v>3.02</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3">
@@ -7534,13 +7559,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.36</v>
+        <v>3.27</v>
       </c>
       <c r="C3" t="n">
-        <v>2.59</v>
+        <v>10.92</v>
       </c>
       <c r="D3" t="n">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="4">
@@ -7548,13 +7573,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5.73</v>
+        <v>9.75</v>
       </c>
       <c r="C4" t="n">
-        <v>4.72</v>
+        <v>2.54</v>
       </c>
       <c r="D4" t="n">
-        <v>2.57</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
@@ -7562,13 +7587,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>8.24</v>
+        <v>4.66</v>
       </c>
       <c r="C5" t="n">
-        <v>2.98</v>
+        <v>2.69</v>
       </c>
       <c r="D5" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6">
@@ -7576,13 +7601,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>9.710000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.82</v>
+        <v>3.69</v>
       </c>
       <c r="D6" t="n">
-        <v>3.38</v>
+        <v>3.99</v>
       </c>
     </row>
   </sheetData>
@@ -7632,10 +7657,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="D2" t="n">
         <v>2.2</v>
@@ -7646,13 +7671,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="C3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
@@ -7660,13 +7685,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="C4" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="D4" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -7674,13 +7699,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="C5" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
@@ -7688,13 +7713,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="D6" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>
@@ -7744,13 +7769,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.74</v>
+        <v>24.81</v>
       </c>
       <c r="C2" t="n">
-        <v>24.8</v>
+        <v>24.84</v>
       </c>
       <c r="D2" t="n">
-        <v>24.82</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="3">
@@ -7758,13 +7783,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.85</v>
+        <v>24.94</v>
       </c>
       <c r="C3" t="n">
-        <v>24.87</v>
+        <v>24.91</v>
       </c>
       <c r="D3" t="n">
-        <v>24.91</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="4">
@@ -7772,13 +7797,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.63</v>
+        <v>24.56</v>
       </c>
       <c r="C4" t="n">
         <v>24.57</v>
       </c>
       <c r="D4" t="n">
-        <v>24.62</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="5">
@@ -7786,13 +7811,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.71</v>
+        <v>24.74</v>
       </c>
       <c r="C5" t="n">
-        <v>24.86</v>
+        <v>24.77</v>
       </c>
       <c r="D5" t="n">
-        <v>24.73</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="6">
@@ -7803,10 +7828,10 @@
         <v>24.96</v>
       </c>
       <c r="C6" t="n">
-        <v>24.97</v>
+        <v>24.83</v>
       </c>
       <c r="D6" t="n">
-        <v>24.92</v>
+        <v>24.95</v>
       </c>
     </row>
   </sheetData>
@@ -7859,10 +7884,10 @@
         <v>23.8</v>
       </c>
       <c r="C2" t="n">
-        <v>23.77</v>
+        <v>23.82</v>
       </c>
       <c r="D2" t="n">
-        <v>23.75</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="3">
@@ -7870,13 +7895,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.94</v>
+        <v>23.97</v>
       </c>
       <c r="C3" t="n">
-        <v>23.88</v>
+        <v>23.9</v>
       </c>
       <c r="D3" t="n">
-        <v>23.91</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="4">
@@ -7884,13 +7909,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.64</v>
+        <v>23.56</v>
       </c>
       <c r="C4" t="n">
-        <v>23.48</v>
+        <v>23.5</v>
       </c>
       <c r="D4" t="n">
-        <v>23.58</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="5">
@@ -7898,13 +7923,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7</v>
+        <v>23.72</v>
       </c>
       <c r="C5" t="n">
-        <v>23.75</v>
+        <v>23.78</v>
       </c>
       <c r="D5" t="n">
-        <v>23.61</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="6">
@@ -7912,10 +7937,10 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>23.91</v>
+        <v>23.94</v>
       </c>
       <c r="C6" t="n">
-        <v>23.94</v>
+        <v>23.86</v>
       </c>
       <c r="D6" t="n">
         <v>23.87</v>
@@ -7968,13 +7993,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.82</v>
+        <v>23.8</v>
       </c>
       <c r="C2" t="n">
-        <v>23.97</v>
+        <v>24.04</v>
       </c>
       <c r="D2" t="n">
-        <v>23.85</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="3">
@@ -7985,10 +8010,10 @@
         <v>23.92</v>
       </c>
       <c r="C3" t="n">
-        <v>23.95</v>
+        <v>23.75</v>
       </c>
       <c r="D3" t="n">
-        <v>23.95</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="4">
@@ -7996,10 +8021,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.61</v>
+        <v>23.66</v>
       </c>
       <c r="C4" t="n">
-        <v>23.69</v>
+        <v>23.63</v>
       </c>
       <c r="D4" t="n">
         <v>23.67</v>
@@ -8010,13 +8035,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.62</v>
+        <v>23.91</v>
       </c>
       <c r="C5" t="n">
-        <v>23.86</v>
+        <v>23.76</v>
       </c>
       <c r="D5" t="n">
-        <v>23.72</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="6">
@@ -8024,13 +8049,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>24.15</v>
+        <v>23.96</v>
       </c>
       <c r="C6" t="n">
-        <v>23.94</v>
+        <v>23.99</v>
       </c>
       <c r="D6" t="n">
-        <v>23.8</v>
+        <v>23.84</v>
       </c>
     </row>
   </sheetData>
@@ -8080,13 +8105,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C2" t="n">
         <v>21.67</v>
       </c>
-      <c r="C2" t="n">
-        <v>21.95</v>
-      </c>
       <c r="D2" t="n">
-        <v>21.72</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="3">
@@ -8097,10 +8122,10 @@
         <v>22.91</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01</v>
+        <v>22.87</v>
       </c>
       <c r="D3" t="n">
-        <v>22.88</v>
+        <v>22.87</v>
       </c>
     </row>
     <row r="4">
@@ -8108,13 +8133,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.67</v>
+        <v>22.57</v>
       </c>
       <c r="C4" t="n">
-        <v>22.54</v>
+        <v>22.42</v>
       </c>
       <c r="D4" t="n">
-        <v>22.53</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="5">
@@ -8122,13 +8147,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.67</v>
+        <v>22.73</v>
       </c>
       <c r="C5" t="n">
-        <v>22.71</v>
+        <v>22.65</v>
       </c>
       <c r="D5" t="n">
-        <v>22.55</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="6">
@@ -8136,13 +8161,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D6" t="n">
         <v>21.84</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.86</v>
       </c>
     </row>
   </sheetData>
@@ -8192,13 +8217,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>22.64</v>
+        <v>22.85</v>
       </c>
       <c r="C2" t="n">
-        <v>22.72</v>
+        <v>22.81</v>
       </c>
       <c r="D2" t="n">
-        <v>22.87</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="3">
@@ -8206,13 +8231,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.06</v>
+        <v>22.87</v>
       </c>
       <c r="C3" t="n">
-        <v>22.98</v>
+        <v>23.21</v>
       </c>
       <c r="D3" t="n">
-        <v>22.77</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="4">
@@ -8220,13 +8245,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.59</v>
+        <v>22.74</v>
       </c>
       <c r="C4" t="n">
-        <v>22.56</v>
+        <v>22.55</v>
       </c>
       <c r="D4" t="n">
-        <v>22.45</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="5">
@@ -8234,13 +8259,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.69</v>
+        <v>22.75</v>
       </c>
       <c r="C5" t="n">
-        <v>22.72</v>
+        <v>22.93</v>
       </c>
       <c r="D5" t="n">
-        <v>22.83</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="6">
@@ -8248,13 +8273,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>22.89</v>
+        <v>23.01</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8</v>
+        <v>23.07</v>
       </c>
       <c r="D6" t="n">
-        <v>22.93</v>
+        <v>22.98</v>
       </c>
     </row>
   </sheetData>
@@ -8304,13 +8329,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.73</v>
+        <v>21.83</v>
       </c>
       <c r="C2" t="n">
         <v>21.92</v>
       </c>
       <c r="D2" t="n">
-        <v>21.98</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="3">
@@ -8318,13 +8343,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21.9</v>
+        <v>21.98</v>
       </c>
       <c r="C3" t="n">
-        <v>22.06</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>21.96</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="4">
@@ -8332,13 +8357,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>21.58</v>
+        <v>21.61</v>
       </c>
       <c r="C4" t="n">
-        <v>21.56</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="n">
-        <v>21.53</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="5">
@@ -8349,10 +8374,10 @@
         <v>21.72</v>
       </c>
       <c r="C5" t="n">
-        <v>21.71</v>
+        <v>21.87</v>
       </c>
       <c r="D5" t="n">
-        <v>21.72</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="6">
@@ -8360,13 +8385,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="D6" t="n">
         <v>21.93</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.96</v>
       </c>
     </row>
   </sheetData>
@@ -8441,16 +8466,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-47.86</v>
+        <v>-47.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.73</v>
+        <v>-54.87</v>
       </c>
       <c r="E2" t="n">
-        <v>-50.47</v>
+        <v>-49.79</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.12</v>
+        <v>-54.18</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -8469,16 +8494,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-48.08</v>
+        <v>-48.32</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.55</v>
+        <v>-55.69</v>
       </c>
       <c r="E3" t="n">
-        <v>-50.24</v>
+        <v>-50.66</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.81</v>
+        <v>-54.74</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -8497,16 +8522,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.79</v>
+        <v>-45.39</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.76</v>
+        <v>-55.9</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.11</v>
+        <v>-49.48</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.32</v>
+        <v>-55.48</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -8525,16 +8550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.61</v>
+        <v>-44.25</v>
       </c>
       <c r="D5" t="n">
-        <v>-55.34</v>
+        <v>-55.37</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.36</v>
+        <v>-48.18</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.89</v>
+        <v>-55.08</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8553,13 +8578,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-48.72</v>
+        <v>-47.97</v>
       </c>
       <c r="D6" t="n">
-        <v>-55.59</v>
+        <v>-55.72</v>
       </c>
       <c r="E6" t="n">
-        <v>-51.16</v>
+        <v>-50.73</v>
       </c>
       <c r="F6" t="n">
         <v>-55.16</v>
@@ -8581,16 +8606,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.65</v>
+        <v>-46.53</v>
       </c>
       <c r="D7" t="n">
-        <v>-56.27</v>
+        <v>-56.26</v>
       </c>
       <c r="E7" t="n">
-        <v>-50.19</v>
+        <v>-50.35</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.75</v>
+        <v>-55.77</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8609,16 +8634,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-47.74</v>
+        <v>-45.1</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.43</v>
+        <v>-55.2</v>
       </c>
       <c r="E8" t="n">
-        <v>-50.75</v>
+        <v>-49.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-54.73</v>
+        <v>-54.62</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8637,16 +8662,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-45.58</v>
+        <v>-45.31</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.38</v>
+        <v>-55.43</v>
       </c>
       <c r="E9" t="n">
-        <v>-50.07</v>
+        <v>-50.12</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.79</v>
+        <v>-54.8</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8665,16 +8690,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.65</v>
+        <v>-44.85</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.63</v>
+        <v>-54.74</v>
       </c>
       <c r="E10" t="n">
-        <v>-49.64</v>
+        <v>-49.71</v>
       </c>
       <c r="F10" t="n">
-        <v>-54.06</v>
+        <v>-54.11</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8693,16 +8718,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-47.36</v>
+        <v>-47.66</v>
       </c>
       <c r="D11" t="n">
-        <v>-55.19</v>
+        <v>-55.28</v>
       </c>
       <c r="E11" t="n">
-        <v>-50.2</v>
+        <v>-50.42</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.43</v>
+        <v>-54.36</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8721,16 +8746,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-47.01</v>
+        <v>-45.64</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.62</v>
+        <v>-55.49</v>
       </c>
       <c r="E12" t="n">
-        <v>-50.23</v>
+        <v>-49.42</v>
       </c>
       <c r="F12" t="n">
-        <v>-55.03</v>
+        <v>-54.88</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -8749,16 +8774,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-44.45</v>
+        <v>-44.61</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.74</v>
+        <v>-56.82</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.5</v>
+        <v>-47.82</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.68</v>
+        <v>-56.22</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -8777,16 +8802,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-47.19</v>
+        <v>-46.28</v>
       </c>
       <c r="D14" t="n">
         <v>-55.38</v>
       </c>
       <c r="E14" t="n">
-        <v>-50.52</v>
+        <v>-49.67</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.79</v>
+        <v>-54.83</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -8805,16 +8830,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-45.68</v>
+        <v>-45.04</v>
       </c>
       <c r="D15" t="n">
-        <v>-55.35</v>
+        <v>-55.33</v>
       </c>
       <c r="E15" t="n">
-        <v>-50.61</v>
+        <v>-50.28</v>
       </c>
       <c r="F15" t="n">
-        <v>-54.73</v>
+        <v>-54.68</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8833,16 +8858,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-42.05</v>
+        <v>-41.19</v>
       </c>
       <c r="D16" t="n">
-        <v>-55.21</v>
+        <v>-55.28</v>
       </c>
       <c r="E16" t="n">
-        <v>-47.88</v>
+        <v>-47.52</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.87</v>
+        <v>-54.86</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -8923,16 +8948,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-47.13</v>
+        <v>-46.51</v>
       </c>
       <c r="D2" t="n">
-        <v>-46.63</v>
+        <v>-46.05</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.85</v>
+        <v>-47.04</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.48</v>
+        <v>-46.59</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -8951,16 +8976,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-48.52</v>
+        <v>-48.49</v>
       </c>
       <c r="D3" t="n">
-        <v>-47.4</v>
+        <v>-47.87</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.13</v>
+        <v>-49.61</v>
       </c>
       <c r="F3" t="n">
-        <v>-48.29</v>
+        <v>-48.75</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -8979,16 +9004,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-40.7</v>
+        <v>-41.63</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.27</v>
+        <v>-40.64</v>
       </c>
       <c r="E4" t="n">
-        <v>-42.38</v>
+        <v>-43.13</v>
       </c>
       <c r="F4" t="n">
-        <v>-41.73</v>
+        <v>-41.91</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9007,16 +9032,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.29</v>
+        <v>-46.38</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.65</v>
+        <v>-45.78</v>
       </c>
       <c r="E5" t="n">
-        <v>-46.18</v>
+        <v>-47.3</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.33</v>
+        <v>-46.56</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9035,16 +9060,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-49.17</v>
+        <v>-49.87</v>
       </c>
       <c r="D6" t="n">
-        <v>-48.67</v>
+        <v>-48.91</v>
       </c>
       <c r="E6" t="n">
-        <v>-50.72</v>
+        <v>-51.54</v>
       </c>
       <c r="F6" t="n">
-        <v>-49.79</v>
+        <v>-50.27</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -9063,16 +9088,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-47.44</v>
+        <v>-47.4</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.4</v>
+        <v>-45.24</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.16</v>
+        <v>-48.22</v>
       </c>
       <c r="F7" t="n">
-        <v>-46.37</v>
+        <v>-46.4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9091,16 +9116,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-46.12</v>
+        <v>-45.96</v>
       </c>
       <c r="D8" t="n">
-        <v>-46.4</v>
+        <v>-46.87</v>
       </c>
       <c r="E8" t="n">
-        <v>-47.06</v>
+        <v>-47.09</v>
       </c>
       <c r="F8" t="n">
-        <v>-47.45</v>
+        <v>-47.64</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9119,16 +9144,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.07</v>
+        <v>-43.92</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.23</v>
+        <v>-43.16</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.75</v>
+        <v>-45.47</v>
       </c>
       <c r="F9" t="n">
-        <v>-44.82</v>
+        <v>-44.78</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9147,16 +9172,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-40.58</v>
+        <v>-41.15</v>
       </c>
       <c r="D10" t="n">
-        <v>-41.9</v>
+        <v>-42.54</v>
       </c>
       <c r="E10" t="n">
-        <v>-42.08</v>
+        <v>-42.71</v>
       </c>
       <c r="F10" t="n">
-        <v>-43.46</v>
+        <v>-44.21</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9175,16 +9200,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-48.13</v>
+        <v>-47.92</v>
       </c>
       <c r="D11" t="n">
-        <v>-47.94</v>
+        <v>-47.33</v>
       </c>
       <c r="E11" t="n">
-        <v>-49.09</v>
+        <v>-48.81</v>
       </c>
       <c r="F11" t="n">
-        <v>-48.55</v>
+        <v>-47.89</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9203,16 +9228,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-47.52</v>
+        <v>-48.71</v>
       </c>
       <c r="D12" t="n">
-        <v>-48.47</v>
+        <v>-50.3</v>
       </c>
       <c r="E12" t="n">
-        <v>-48.17</v>
+        <v>-49.97</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.33</v>
+        <v>-51.25</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -9231,16 +9256,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-43.38</v>
+        <v>-43.68</v>
       </c>
       <c r="D13" t="n">
-        <v>-48.38</v>
+        <v>-49.15</v>
       </c>
       <c r="E13" t="n">
-        <v>-43.98</v>
+        <v>-44.22</v>
       </c>
       <c r="F13" t="n">
-        <v>-49.17</v>
+        <v>-49.93</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -9259,16 +9284,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-45.26</v>
+        <v>-45.98</v>
       </c>
       <c r="D14" t="n">
-        <v>-45.14</v>
+        <v>-45.92</v>
       </c>
       <c r="E14" t="n">
-        <v>-46.07</v>
+        <v>-46.85</v>
       </c>
       <c r="F14" t="n">
-        <v>-45.99</v>
+        <v>-46.69</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -9287,16 +9312,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-42.97</v>
+        <v>-43.34</v>
       </c>
       <c r="D15" t="n">
-        <v>-43.26</v>
+        <v>-43.94</v>
       </c>
       <c r="E15" t="n">
-        <v>-44.85</v>
+        <v>-45.21</v>
       </c>
       <c r="F15" t="n">
-        <v>-44.93</v>
+        <v>-45.63</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -9315,16 +9340,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.55</v>
+        <v>-39.84</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.2</v>
+        <v>-38.31</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.04</v>
+        <v>-41.41</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.8</v>
+        <v>-39.92</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>

--- a/results_3MHZ_LTE.xlsx
+++ b/results_3MHZ_LTE.xlsx
@@ -575,6 +575,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -856,6 +858,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1137,6 +1141,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1418,6 +1424,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3907,6 +3915,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4188,6 +4198,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -5057,13 +5069,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.91</v>
+        <v>24.45</v>
       </c>
       <c r="C2" t="n">
-        <v>24.84</v>
+        <v>24.53</v>
       </c>
       <c r="D2" t="n">
-        <v>24.83</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="3">
@@ -5071,13 +5083,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.96</v>
+        <v>24.51</v>
       </c>
       <c r="C3" t="n">
-        <v>24.95</v>
+        <v>24.47</v>
       </c>
       <c r="D3" t="n">
-        <v>24.74</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="4">
@@ -5085,13 +5097,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.61</v>
+        <v>23.95</v>
       </c>
       <c r="C4" t="n">
-        <v>24.48</v>
+        <v>24.04</v>
       </c>
       <c r="D4" t="n">
-        <v>24.45</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="5">
@@ -5099,13 +5111,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.69</v>
+        <v>24.38</v>
       </c>
       <c r="C5" t="n">
-        <v>24.7</v>
+        <v>24.47</v>
       </c>
       <c r="D5" t="n">
-        <v>24.69</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="6">
@@ -5113,13 +5125,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>24.93</v>
+        <v>24.31</v>
       </c>
       <c r="C6" t="n">
-        <v>24.84</v>
+        <v>24.34</v>
       </c>
       <c r="D6" t="n">
-        <v>24.82</v>
+        <v>24.29</v>
       </c>
     </row>
   </sheetData>
@@ -5194,16 +5206,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.41</v>
+        <v>-43.83</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.15</v>
+        <v>-54.83</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.07</v>
+        <v>-48.71</v>
       </c>
       <c r="F2" t="n">
-        <v>-53.58</v>
+        <v>-53.93</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5222,16 +5234,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.33</v>
+        <v>-47.15</v>
       </c>
       <c r="D3" t="n">
-        <v>-54.99</v>
+        <v>-55.33</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.32</v>
+        <v>-50.33</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.43</v>
+        <v>-54.65</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5250,16 +5262,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.32</v>
+        <v>-42.07</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.9</v>
+        <v>-55.15</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.19</v>
+        <v>-48.16</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.29</v>
+        <v>-54.68</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5278,16 +5290,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.8</v>
+        <v>-43.19</v>
       </c>
       <c r="D5" t="n">
-        <v>-54.78</v>
+        <v>-54.87</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.86</v>
+        <v>-48.59</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.26</v>
+        <v>-54.24</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5306,16 +5318,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-45.16</v>
+        <v>-46.16</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.71</v>
+        <v>-55.01</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.5</v>
+        <v>-49.88</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.14</v>
+        <v>-54.49</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5334,16 +5346,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-47.47</v>
+        <v>-44.26</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.87</v>
+        <v>-55.54</v>
       </c>
       <c r="E7" t="n">
-        <v>-50.73</v>
+        <v>-47.9</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.22</v>
+        <v>-55.11</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5362,16 +5374,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.26</v>
+        <v>-45.32</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.59</v>
+        <v>-54.44</v>
       </c>
       <c r="E8" t="n">
-        <v>-49.17</v>
+        <v>-49.63</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.84</v>
+        <v>-53.58</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5390,16 +5402,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.6</v>
+        <v>-44.74</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.76</v>
+        <v>-54.85</v>
       </c>
       <c r="E9" t="n">
-        <v>-48.84</v>
+        <v>-49.48</v>
       </c>
       <c r="F9" t="n">
-        <v>-53.99</v>
+        <v>-53.97</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5418,16 +5430,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-41.45</v>
+        <v>-43.16</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.71</v>
+        <v>-54.12</v>
       </c>
       <c r="E10" t="n">
-        <v>-47.94</v>
+        <v>-49.02</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.09</v>
+        <v>-53.5</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5446,16 +5458,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-46.15</v>
+        <v>-44.39</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.52</v>
+        <v>-54.76</v>
       </c>
       <c r="E11" t="n">
-        <v>-49.8</v>
+        <v>-48.44</v>
       </c>
       <c r="F11" t="n">
-        <v>-53.69</v>
+        <v>-54.09</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5474,16 +5486,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.86</v>
+        <v>-46.72</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.29</v>
+        <v>-55.08</v>
       </c>
       <c r="E12" t="n">
-        <v>-50.49</v>
+        <v>-49.77</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.38</v>
+        <v>-54.27</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5502,16 +5514,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.67</v>
+        <v>-44.32</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.87</v>
+        <v>-56.32</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.23</v>
+        <v>-47.44</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.4</v>
+        <v>-55.88</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5530,16 +5542,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-46.84</v>
+        <v>-44.6</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.17</v>
+        <v>-54.75</v>
       </c>
       <c r="E14" t="n">
-        <v>-50.4</v>
+        <v>-49.5</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.49</v>
+        <v>-54.03</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5558,16 +5570,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-43.74</v>
+        <v>-42.52</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.76</v>
+        <v>-54.74</v>
       </c>
       <c r="E15" t="n">
-        <v>-49.58</v>
+        <v>-48.83</v>
       </c>
       <c r="F15" t="n">
-        <v>-54.15</v>
+        <v>-54.27</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5586,16 +5598,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.7</v>
+        <v>-39.5</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.82</v>
+        <v>-54.6</v>
       </c>
       <c r="E16" t="n">
-        <v>-46.43</v>
+        <v>-46.63</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.47</v>
+        <v>-54.23</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5676,16 +5688,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.64</v>
+        <v>-46.07</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.27</v>
+        <v>-45.72</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.51</v>
+        <v>-46.97</v>
       </c>
       <c r="F2" t="n">
-        <v>-44.94</v>
+        <v>-46.42</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5704,16 +5716,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-46.34</v>
+        <v>-44.51</v>
       </c>
       <c r="D3" t="n">
-        <v>-46.63</v>
+        <v>-44.91</v>
       </c>
       <c r="E3" t="n">
-        <v>-47.67</v>
+        <v>-45.44</v>
       </c>
       <c r="F3" t="n">
-        <v>-47.46</v>
+        <v>-45.89</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5732,16 +5744,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-38.27</v>
+        <v>-38.53</v>
       </c>
       <c r="D4" t="n">
-        <v>-38.19</v>
+        <v>-38.31</v>
       </c>
       <c r="E4" t="n">
-        <v>-39.79</v>
+        <v>-40.19</v>
       </c>
       <c r="F4" t="n">
-        <v>-39.86</v>
+        <v>-40.07</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5760,16 +5772,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-41.16</v>
+        <v>-45.09</v>
       </c>
       <c r="D5" t="n">
-        <v>-40.83</v>
+        <v>-45.08</v>
       </c>
       <c r="E5" t="n">
-        <v>-42.45</v>
+        <v>-45.94</v>
       </c>
       <c r="F5" t="n">
-        <v>-41.87</v>
+        <v>-45.41</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5788,16 +5800,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.17</v>
+        <v>-44.2</v>
       </c>
       <c r="D6" t="n">
-        <v>-41.79</v>
+        <v>-44.39</v>
       </c>
       <c r="E6" t="n">
-        <v>-43.42</v>
+        <v>-45.29</v>
       </c>
       <c r="F6" t="n">
-        <v>-43.19</v>
+        <v>-45.35</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5816,16 +5828,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.09</v>
+        <v>-41.39</v>
       </c>
       <c r="D7" t="n">
-        <v>-44.89</v>
+        <v>-42.83</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.85</v>
+        <v>-42.47</v>
       </c>
       <c r="F7" t="n">
-        <v>-45.71</v>
+        <v>-43.98</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5844,16 +5856,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-42.61</v>
+        <v>-43.14</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.78</v>
+        <v>-43.3</v>
       </c>
       <c r="E8" t="n">
-        <v>-43.42</v>
+        <v>-44.04</v>
       </c>
       <c r="F8" t="n">
-        <v>-43.39</v>
+        <v>-44.22</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5872,16 +5884,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42</v>
+        <v>-42.06</v>
       </c>
       <c r="D9" t="n">
-        <v>-41.45</v>
+        <v>-41.24</v>
       </c>
       <c r="E9" t="n">
-        <v>-43.64</v>
+        <v>-43.75</v>
       </c>
       <c r="F9" t="n">
-        <v>-43.09</v>
+        <v>-43.13</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5900,16 +5912,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.41</v>
+        <v>-39.75</v>
       </c>
       <c r="D10" t="n">
-        <v>-40.43</v>
+        <v>-40.52</v>
       </c>
       <c r="E10" t="n">
-        <v>-41</v>
+        <v>-41.33</v>
       </c>
       <c r="F10" t="n">
-        <v>-42.02</v>
+        <v>-42.12</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5928,16 +5940,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-45.55</v>
+        <v>-42.63</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.22</v>
+        <v>-42.22</v>
       </c>
       <c r="E11" t="n">
-        <v>-46.64</v>
+        <v>-43.95</v>
       </c>
       <c r="F11" t="n">
-        <v>-46.18</v>
+        <v>-43.35</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5956,16 +5968,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-41.68</v>
+        <v>-40.02</v>
       </c>
       <c r="D12" t="n">
-        <v>-42.09</v>
+        <v>-40.69</v>
       </c>
       <c r="E12" t="n">
-        <v>-42.65</v>
+        <v>-41.58</v>
       </c>
       <c r="F12" t="n">
-        <v>-43.32</v>
+        <v>-42.35</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5984,16 +5996,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-40.12</v>
+        <v>-40.66</v>
       </c>
       <c r="D13" t="n">
-        <v>-43.27</v>
+        <v>-43.97</v>
       </c>
       <c r="E13" t="n">
-        <v>-40.55</v>
+        <v>-41.06</v>
       </c>
       <c r="F13" t="n">
-        <v>-43.88</v>
+        <v>-44.28</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6012,16 +6024,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.21</v>
+        <v>-43.05</v>
       </c>
       <c r="D14" t="n">
-        <v>-42.65</v>
+        <v>-43.4</v>
       </c>
       <c r="E14" t="n">
-        <v>-43.36</v>
+        <v>-44.35</v>
       </c>
       <c r="F14" t="n">
-        <v>-43.74</v>
+        <v>-44.54</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6040,16 +6052,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.63</v>
+        <v>-41.86</v>
       </c>
       <c r="D15" t="n">
-        <v>-41.51</v>
+        <v>-42.47</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.35</v>
+        <v>-43.48</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.14</v>
+        <v>-44.23</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6068,16 +6080,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.96</v>
+        <v>-39.81</v>
       </c>
       <c r="D16" t="n">
-        <v>-37.49</v>
+        <v>-38.7</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.55</v>
+        <v>-41.23</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.25</v>
+        <v>-40.22</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6158,16 +6170,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.2</v>
+        <v>-44.07</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.38</v>
+        <v>-54.14</v>
       </c>
       <c r="E2" t="n">
-        <v>-49.03</v>
+        <v>-48.66</v>
       </c>
       <c r="F2" t="n">
-        <v>-53.87</v>
+        <v>-53.52</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6186,16 +6198,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.69</v>
+        <v>-46.34</v>
       </c>
       <c r="D3" t="n">
-        <v>-54.77</v>
+        <v>-54.76</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.84</v>
+        <v>-49.16</v>
       </c>
       <c r="F3" t="n">
-        <v>-53.89</v>
+        <v>-54.22</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6214,16 +6226,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-41.93</v>
+        <v>-41.34</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.19</v>
+        <v>-54.77</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.41</v>
+        <v>-47.42</v>
       </c>
       <c r="F4" t="n">
-        <v>-53.87</v>
+        <v>-54.28</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6242,16 +6254,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.63</v>
+        <v>-45.52</v>
       </c>
       <c r="D5" t="n">
-        <v>-53.72</v>
+        <v>-53.89</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.9</v>
+        <v>-48.55</v>
       </c>
       <c r="F5" t="n">
-        <v>-53.34</v>
+        <v>-53.56</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6270,16 +6282,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-44.38</v>
+        <v>-44.81</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.5</v>
+        <v>-54.52</v>
       </c>
       <c r="E6" t="n">
-        <v>-48.87</v>
+        <v>-49.08</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.06</v>
+        <v>-54.11</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6298,16 +6310,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.97</v>
+        <v>-46.37</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.35</v>
+        <v>-55.64</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.2</v>
+        <v>-49.52</v>
       </c>
       <c r="F7" t="n">
-        <v>-54.98</v>
+        <v>-55.34</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6326,16 +6338,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44.63</v>
+        <v>-44</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.64</v>
+        <v>-54.37</v>
       </c>
       <c r="E8" t="n">
-        <v>-48.11</v>
+        <v>-48.21</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.98</v>
+        <v>-53.75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6354,16 +6366,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.44</v>
+        <v>-44.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.56</v>
+        <v>-54.22</v>
       </c>
       <c r="E9" t="n">
-        <v>-48.21</v>
+        <v>-49.29</v>
       </c>
       <c r="F9" t="n">
-        <v>-53.95</v>
+        <v>-53.5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6382,16 +6394,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-42.77</v>
+        <v>-43.56</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.78</v>
+        <v>-54</v>
       </c>
       <c r="E10" t="n">
-        <v>-47.69</v>
+        <v>-48.58</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.12</v>
+        <v>-53.39</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6410,16 +6422,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.96</v>
+        <v>-46.64</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.17</v>
+        <v>-54.32</v>
       </c>
       <c r="E11" t="n">
-        <v>-49.42</v>
+        <v>-50.14</v>
       </c>
       <c r="F11" t="n">
-        <v>-53.33</v>
+        <v>-53.62</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6438,16 +6450,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-44.95</v>
+        <v>-45.4</v>
       </c>
       <c r="D12" t="n">
-        <v>-54.86</v>
+        <v>-55.14</v>
       </c>
       <c r="E12" t="n">
-        <v>-48.6</v>
+        <v>-49.2</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.16</v>
+        <v>-54.62</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6466,16 +6478,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.59</v>
+        <v>-42.26</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.25</v>
+        <v>-54.88</v>
       </c>
       <c r="E13" t="n">
-        <v>-45.69</v>
+        <v>-45.26</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.21</v>
+        <v>-55.13</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6494,16 +6506,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.98</v>
+        <v>-42.38</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.26</v>
+        <v>-54.07</v>
       </c>
       <c r="E14" t="n">
-        <v>-47.46</v>
+        <v>-48.15</v>
       </c>
       <c r="F14" t="n">
-        <v>-53.76</v>
+        <v>-53.55</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6522,16 +6534,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-44.24</v>
+        <v>-44.04</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.41</v>
+        <v>-54.55</v>
       </c>
       <c r="E15" t="n">
-        <v>-49.34</v>
+        <v>-49.55</v>
       </c>
       <c r="F15" t="n">
-        <v>-53.84</v>
+        <v>-53.77</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6550,16 +6562,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-37.98</v>
+        <v>-39.42</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.19</v>
+        <v>-54.37</v>
       </c>
       <c r="E16" t="n">
-        <v>-45.05</v>
+        <v>-46.18</v>
       </c>
       <c r="F16" t="n">
-        <v>-53.67</v>
+        <v>-53.79</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6640,16 +6652,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.06</v>
+        <v>-44.28</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.54</v>
+        <v>-43.95</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.82</v>
+        <v>-45.33</v>
       </c>
       <c r="F2" t="n">
-        <v>-45.34</v>
+        <v>-44.55</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6668,16 +6680,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.9</v>
+        <v>-44.51</v>
       </c>
       <c r="D3" t="n">
-        <v>-46.12</v>
+        <v>-44.55</v>
       </c>
       <c r="E3" t="n">
-        <v>-46.85</v>
+        <v>-45.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-46.96</v>
+        <v>-45.76</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6696,16 +6708,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-38.13</v>
+        <v>-37.79</v>
       </c>
       <c r="D4" t="n">
-        <v>-37.94</v>
+        <v>-37.82</v>
       </c>
       <c r="E4" t="n">
-        <v>-39.92</v>
+        <v>-39.49</v>
       </c>
       <c r="F4" t="n">
-        <v>-39.84</v>
+        <v>-39.54</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6724,16 +6736,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.43</v>
+        <v>-44.6</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.93</v>
+        <v>-44.78</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.6</v>
+        <v>-45.91</v>
       </c>
       <c r="F5" t="n">
-        <v>-44.64</v>
+        <v>-45.35</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6752,16 +6764,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-47.18</v>
+        <v>-44.43</v>
       </c>
       <c r="D6" t="n">
-        <v>-46.47</v>
+        <v>-44.06</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.84</v>
+        <v>-45.37</v>
       </c>
       <c r="F6" t="n">
-        <v>-47.35</v>
+        <v>-45.42</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6780,16 +6792,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-42.61</v>
+        <v>-45.36</v>
       </c>
       <c r="D7" t="n">
-        <v>-42.91</v>
+        <v>-45.32</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.26</v>
+        <v>-45.76</v>
       </c>
       <c r="F7" t="n">
-        <v>-43.84</v>
+        <v>-46.13</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6808,16 +6820,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-42.28</v>
+        <v>-43.14</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.54</v>
+        <v>-42.88</v>
       </c>
       <c r="E8" t="n">
-        <v>-43.4</v>
+        <v>-44.57</v>
       </c>
       <c r="F8" t="n">
-        <v>-43.57</v>
+        <v>-44.29</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6836,16 +6848,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.29</v>
+        <v>-42.97</v>
       </c>
       <c r="D9" t="n">
-        <v>-42.14</v>
+        <v>-42.55</v>
       </c>
       <c r="E9" t="n">
-        <v>-43.96</v>
+        <v>-44.49</v>
       </c>
       <c r="F9" t="n">
-        <v>-43.81</v>
+        <v>-44.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6864,16 +6876,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.88</v>
+        <v>-38.91</v>
       </c>
       <c r="D10" t="n">
-        <v>-41.1</v>
+        <v>-39.69</v>
       </c>
       <c r="E10" t="n">
-        <v>-41.56</v>
+        <v>-40.57</v>
       </c>
       <c r="F10" t="n">
-        <v>-42.77</v>
+        <v>-41.32</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6892,16 +6904,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.86</v>
+        <v>-41.93</v>
       </c>
       <c r="D11" t="n">
-        <v>-44.4</v>
+        <v>-42.18</v>
       </c>
       <c r="E11" t="n">
-        <v>-46</v>
+        <v>-43.15</v>
       </c>
       <c r="F11" t="n">
-        <v>-45.39</v>
+        <v>-43.27</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6920,16 +6932,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43.32</v>
+        <v>-44.22</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.05</v>
+        <v>-45.35</v>
       </c>
       <c r="E12" t="n">
-        <v>-44.33</v>
+        <v>-45.16</v>
       </c>
       <c r="F12" t="n">
-        <v>-45.06</v>
+        <v>-46.26</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6948,16 +6960,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-38.88</v>
+        <v>-39.79</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.77</v>
+        <v>-43.62</v>
       </c>
       <c r="E13" t="n">
-        <v>-39.4</v>
+        <v>-40.37</v>
       </c>
       <c r="F13" t="n">
-        <v>-42.36</v>
+        <v>-44.01</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6976,16 +6988,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.74</v>
+        <v>-42.02</v>
       </c>
       <c r="D14" t="n">
-        <v>-43.18</v>
+        <v>-42.19</v>
       </c>
       <c r="E14" t="n">
-        <v>-43.81</v>
+        <v>-43.29</v>
       </c>
       <c r="F14" t="n">
-        <v>-44.22</v>
+        <v>-43.14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7004,16 +7016,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-42.15</v>
+        <v>-41.59</v>
       </c>
       <c r="D15" t="n">
-        <v>-42.29</v>
+        <v>-41.95</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.94</v>
+        <v>-43.18</v>
       </c>
       <c r="F15" t="n">
-        <v>-44</v>
+        <v>-43.7</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7032,16 +7044,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.47</v>
+        <v>-38.98</v>
       </c>
       <c r="D16" t="n">
-        <v>-37.4</v>
+        <v>-37.98</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.16</v>
+        <v>-40.58</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.15</v>
+        <v>-39.62</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -7097,13 +7109,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.86</v>
+        <v>2.26</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="3">
@@ -7111,13 +7123,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3.32</v>
+        <v>2.51</v>
       </c>
       <c r="C3" t="n">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="D3" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="4">
@@ -7125,13 +7137,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.82</v>
+        <v>2.45</v>
       </c>
       <c r="C4" t="n">
-        <v>2.59</v>
+        <v>2.98</v>
       </c>
       <c r="D4" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5">
@@ -7139,13 +7151,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="C5" t="n">
-        <v>2.79</v>
+        <v>3.05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="6">
@@ -7153,13 +7165,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="C6" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="D6" t="n">
-        <v>2.94</v>
+        <v>3.41</v>
       </c>
     </row>
   </sheetData>
@@ -7209,13 +7221,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -7223,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
         <v>0.82</v>
@@ -7237,13 +7249,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="D4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -7251,13 +7263,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -7265,13 +7277,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="D6" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -7321,13 +7333,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.33</v>
+        <v>2.79</v>
       </c>
       <c r="C2" t="n">
-        <v>2.64</v>
+        <v>4.03</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -7335,13 +7347,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3.37</v>
+        <v>2.62</v>
       </c>
       <c r="C3" t="n">
-        <v>3.33</v>
+        <v>3.16</v>
       </c>
       <c r="D3" t="n">
-        <v>3.08</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4">
@@ -7349,13 +7361,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>13.75</v>
+        <v>3.29</v>
       </c>
       <c r="C4" t="n">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="D4" t="n">
-        <v>2.85</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="5">
@@ -7363,13 +7375,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>7.75</v>
+        <v>2.52</v>
       </c>
       <c r="C5" t="n">
-        <v>2.45</v>
+        <v>3.28</v>
       </c>
       <c r="D5" t="n">
-        <v>3.18</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="6">
@@ -7377,13 +7389,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="C6" t="n">
-        <v>2.78</v>
+        <v>3.71</v>
       </c>
       <c r="D6" t="n">
-        <v>3.71</v>
+        <v>4.39</v>
       </c>
     </row>
   </sheetData>
@@ -7433,13 +7445,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="C2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
@@ -7447,13 +7459,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.71</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="D3" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -7461,13 +7473,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -7475,13 +7487,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="C5" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -7489,13 +7501,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="C6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="D6" t="n">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
     </row>
   </sheetData>
@@ -7545,13 +7557,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.58</v>
+        <v>2.49</v>
       </c>
       <c r="C2" t="n">
-        <v>2.43</v>
+        <v>2.26</v>
       </c>
       <c r="D2" t="n">
-        <v>2.65</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="3">
@@ -7559,13 +7571,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3.27</v>
+        <v>2.52</v>
       </c>
       <c r="C3" t="n">
-        <v>10.92</v>
+        <v>2.43</v>
       </c>
       <c r="D3" t="n">
-        <v>2.73</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="4">
@@ -7573,13 +7585,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>9.75</v>
+        <v>2.73</v>
       </c>
       <c r="C4" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="5">
@@ -7587,13 +7599,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>4.66</v>
+        <v>2.41</v>
       </c>
       <c r="C5" t="n">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="D5" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7601,13 +7613,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="C6" t="n">
-        <v>3.69</v>
+        <v>3.12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.99</v>
+        <v>3.76</v>
       </c>
     </row>
   </sheetData>
@@ -7657,13 +7669,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="C2" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="3">
@@ -7671,13 +7683,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="C3" t="n">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -7685,13 +7697,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="D4" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5">
@@ -7699,13 +7711,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="C5" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="D5" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -7713,13 +7725,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="D6" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -7769,13 +7781,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.81</v>
+        <v>24.47</v>
       </c>
       <c r="C2" t="n">
-        <v>24.84</v>
+        <v>24.51</v>
       </c>
       <c r="D2" t="n">
-        <v>24.88</v>
+        <v>24.45</v>
       </c>
     </row>
     <row r="3">
@@ -7783,13 +7795,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.94</v>
+        <v>24.57</v>
       </c>
       <c r="C3" t="n">
-        <v>24.91</v>
+        <v>24.56</v>
       </c>
       <c r="D3" t="n">
-        <v>24.86</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="4">
@@ -7797,13 +7809,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.56</v>
+        <v>24.06</v>
       </c>
       <c r="C4" t="n">
-        <v>24.57</v>
+        <v>24.03</v>
       </c>
       <c r="D4" t="n">
-        <v>24.67</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="5">
@@ -7811,13 +7823,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.74</v>
+        <v>24.38</v>
       </c>
       <c r="C5" t="n">
-        <v>24.77</v>
+        <v>24.49</v>
       </c>
       <c r="D5" t="n">
-        <v>24.74</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="6">
@@ -7825,13 +7837,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>24.96</v>
+        <v>24.34</v>
       </c>
       <c r="C6" t="n">
-        <v>24.83</v>
+        <v>24.29</v>
       </c>
       <c r="D6" t="n">
-        <v>24.95</v>
+        <v>24.41</v>
       </c>
     </row>
   </sheetData>
@@ -7881,13 +7893,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.8</v>
+        <v>23.41</v>
       </c>
       <c r="C2" t="n">
-        <v>23.82</v>
+        <v>23.45</v>
       </c>
       <c r="D2" t="n">
-        <v>23.72</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="3">
@@ -7895,13 +7907,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.97</v>
+        <v>23.48</v>
       </c>
       <c r="C3" t="n">
-        <v>23.9</v>
+        <v>23.55</v>
       </c>
       <c r="D3" t="n">
-        <v>23.93</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="4">
@@ -7909,13 +7921,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.56</v>
+        <v>22.95</v>
       </c>
       <c r="C4" t="n">
-        <v>23.5</v>
+        <v>23.05</v>
       </c>
       <c r="D4" t="n">
-        <v>23.61</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="5">
@@ -7923,13 +7935,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.72</v>
+        <v>23.34</v>
       </c>
       <c r="C5" t="n">
-        <v>23.78</v>
+        <v>23.38</v>
       </c>
       <c r="D5" t="n">
-        <v>23.73</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="6">
@@ -7937,13 +7949,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>23.94</v>
+        <v>23.3</v>
       </c>
       <c r="C6" t="n">
-        <v>23.86</v>
+        <v>23.31</v>
       </c>
       <c r="D6" t="n">
-        <v>23.87</v>
+        <v>23.31</v>
       </c>
     </row>
   </sheetData>
@@ -7993,13 +8005,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.8</v>
+        <v>23.29</v>
       </c>
       <c r="C2" t="n">
-        <v>24.04</v>
+        <v>23.6</v>
       </c>
       <c r="D2" t="n">
-        <v>23.71</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="3">
@@ -8007,13 +8019,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.92</v>
+        <v>23.33</v>
       </c>
       <c r="C3" t="n">
-        <v>23.75</v>
+        <v>23.72</v>
       </c>
       <c r="D3" t="n">
-        <v>23.84</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="4">
@@ -8021,13 +8033,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.66</v>
+        <v>22.98</v>
       </c>
       <c r="C4" t="n">
-        <v>23.63</v>
+        <v>23.06</v>
       </c>
       <c r="D4" t="n">
-        <v>23.67</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="5">
@@ -8035,13 +8047,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.91</v>
+        <v>23.47</v>
       </c>
       <c r="C5" t="n">
-        <v>23.76</v>
+        <v>23.4</v>
       </c>
       <c r="D5" t="n">
-        <v>23.78</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="6">
@@ -8049,13 +8061,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>23.96</v>
+        <v>23.29</v>
       </c>
       <c r="C6" t="n">
-        <v>23.99</v>
+        <v>23.5</v>
       </c>
       <c r="D6" t="n">
-        <v>23.84</v>
+        <v>23.37</v>
       </c>
     </row>
   </sheetData>
@@ -8105,13 +8117,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.7</v>
+        <v>21.36</v>
       </c>
       <c r="C2" t="n">
-        <v>21.67</v>
+        <v>21.58</v>
       </c>
       <c r="D2" t="n">
-        <v>21.8</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="3">
@@ -8119,13 +8131,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.91</v>
+        <v>22.38</v>
       </c>
       <c r="C3" t="n">
-        <v>22.87</v>
+        <v>22.57</v>
       </c>
       <c r="D3" t="n">
-        <v>22.87</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="4">
@@ -8133,13 +8145,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.57</v>
+        <v>21.97</v>
       </c>
       <c r="C4" t="n">
-        <v>22.42</v>
+        <v>21.99</v>
       </c>
       <c r="D4" t="n">
-        <v>22.63</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="5">
@@ -8147,13 +8159,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.73</v>
+        <v>22.32</v>
       </c>
       <c r="C5" t="n">
-        <v>22.65</v>
+        <v>22.38</v>
       </c>
       <c r="D5" t="n">
-        <v>22.61</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="6">
@@ -8161,13 +8173,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>21.22</v>
       </c>
       <c r="C6" t="n">
-        <v>21.86</v>
+        <v>21.32</v>
       </c>
       <c r="D6" t="n">
-        <v>21.84</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>
@@ -8217,13 +8229,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>22.85</v>
+        <v>22.43</v>
       </c>
       <c r="C2" t="n">
-        <v>22.81</v>
+        <v>22.41</v>
       </c>
       <c r="D2" t="n">
-        <v>22.82</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="3">
@@ -8231,13 +8243,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.87</v>
+        <v>22.72</v>
       </c>
       <c r="C3" t="n">
-        <v>23.21</v>
+        <v>22.75</v>
       </c>
       <c r="D3" t="n">
-        <v>23.02</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="4">
@@ -8245,13 +8257,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.74</v>
+        <v>22.13</v>
       </c>
       <c r="C4" t="n">
-        <v>22.55</v>
+        <v>21.99</v>
       </c>
       <c r="D4" t="n">
-        <v>22.64</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="5">
@@ -8259,13 +8271,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.75</v>
+        <v>22.33</v>
       </c>
       <c r="C5" t="n">
-        <v>22.93</v>
+        <v>22.32</v>
       </c>
       <c r="D5" t="n">
-        <v>22.85</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="6">
@@ -8273,13 +8285,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>23.01</v>
+        <v>22.19</v>
       </c>
       <c r="C6" t="n">
-        <v>23.07</v>
+        <v>22.37</v>
       </c>
       <c r="D6" t="n">
-        <v>22.98</v>
+        <v>22.37</v>
       </c>
     </row>
   </sheetData>
@@ -8329,13 +8341,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.83</v>
+        <v>21.58</v>
       </c>
       <c r="C2" t="n">
-        <v>21.92</v>
+        <v>21.61</v>
       </c>
       <c r="D2" t="n">
-        <v>21.91</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="3">
@@ -8343,13 +8355,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21.98</v>
+        <v>21.62</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>21.69</v>
       </c>
       <c r="D3" t="n">
-        <v>21.91</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="4">
@@ -8357,13 +8369,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>21.61</v>
+        <v>20.97</v>
       </c>
       <c r="C4" t="n">
-        <v>21.6</v>
+        <v>20.99</v>
       </c>
       <c r="D4" t="n">
-        <v>21.51</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="5">
@@ -8371,13 +8383,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>21.72</v>
+        <v>21.45</v>
       </c>
       <c r="C5" t="n">
-        <v>21.87</v>
+        <v>21.4</v>
       </c>
       <c r="D5" t="n">
-        <v>21.76</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="6">
@@ -8385,13 +8397,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>21.87</v>
+        <v>21.33</v>
       </c>
       <c r="C6" t="n">
-        <v>21.83</v>
+        <v>21.34</v>
       </c>
       <c r="D6" t="n">
-        <v>21.93</v>
+        <v>21.39</v>
       </c>
     </row>
   </sheetData>
@@ -8466,16 +8478,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-47.01</v>
+        <v>-47.98</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.87</v>
+        <v>-55.34</v>
       </c>
       <c r="E2" t="n">
-        <v>-49.79</v>
+        <v>-50.55</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.18</v>
+        <v>-54.46</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -8494,16 +8506,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-48.32</v>
+        <v>-47.79</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.69</v>
+        <v>-55.7</v>
       </c>
       <c r="E3" t="n">
-        <v>-50.66</v>
+        <v>-50.55</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.74</v>
+        <v>-54.96</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -8522,16 +8534,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-45.39</v>
+        <v>-43.26</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.9</v>
+        <v>-55.78</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.48</v>
+        <v>-48.97</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.48</v>
+        <v>-55.15</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -8550,16 +8562,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.25</v>
+        <v>-44.55</v>
       </c>
       <c r="D5" t="n">
-        <v>-55.37</v>
+        <v>-55.32</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.18</v>
+        <v>-48.4</v>
       </c>
       <c r="F5" t="n">
-        <v>-55.08</v>
+        <v>-54.84</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8578,16 +8590,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-47.97</v>
+        <v>-49.48</v>
       </c>
       <c r="D6" t="n">
-        <v>-55.72</v>
+        <v>-55.29</v>
       </c>
       <c r="E6" t="n">
-        <v>-50.73</v>
+        <v>-51.52</v>
       </c>
       <c r="F6" t="n">
-        <v>-55.16</v>
+        <v>-54.66</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8606,16 +8618,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.53</v>
+        <v>-46.63</v>
       </c>
       <c r="D7" t="n">
-        <v>-56.26</v>
+        <v>-56.27</v>
       </c>
       <c r="E7" t="n">
-        <v>-50.35</v>
+        <v>-50.04</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.77</v>
+        <v>-55.87</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8634,16 +8646,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.1</v>
+        <v>-47.46</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.2</v>
+        <v>-55.43</v>
       </c>
       <c r="E8" t="n">
-        <v>-49.18</v>
+        <v>-51.19</v>
       </c>
       <c r="F8" t="n">
-        <v>-54.62</v>
+        <v>-54.63</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8662,16 +8674,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-45.31</v>
+        <v>-45.54</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.43</v>
+        <v>-55.7</v>
       </c>
       <c r="E9" t="n">
-        <v>-50.12</v>
+        <v>-50.47</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.8</v>
+        <v>-54.82</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8690,16 +8702,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.85</v>
+        <v>-44.81</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.74</v>
+        <v>-54.72</v>
       </c>
       <c r="E10" t="n">
-        <v>-49.71</v>
+        <v>-50.2</v>
       </c>
       <c r="F10" t="n">
-        <v>-54.11</v>
+        <v>-54.21</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8718,16 +8730,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-47.66</v>
+        <v>-45.94</v>
       </c>
       <c r="D11" t="n">
-        <v>-55.28</v>
+        <v>-55.52</v>
       </c>
       <c r="E11" t="n">
-        <v>-50.42</v>
+        <v>-49.55</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.36</v>
+        <v>-54.56</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8746,16 +8758,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-45.64</v>
+        <v>-48.63</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.49</v>
+        <v>-55.96</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.42</v>
+        <v>-51.33</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.88</v>
+        <v>-55.21</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -8774,16 +8786,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-44.61</v>
+        <v>-44.27</v>
       </c>
       <c r="D13" t="n">
-        <v>-56.82</v>
+        <v>-56.78</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.82</v>
+        <v>-47.32</v>
       </c>
       <c r="F13" t="n">
-        <v>-56.22</v>
+        <v>-56.59</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -8802,16 +8814,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-46.28</v>
+        <v>-45.21</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.38</v>
+        <v>-55.4</v>
       </c>
       <c r="E14" t="n">
-        <v>-49.67</v>
+        <v>-49.37</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.83</v>
+        <v>-54.72</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -8830,16 +8842,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-45.04</v>
+        <v>-43.11</v>
       </c>
       <c r="D15" t="n">
-        <v>-55.33</v>
+        <v>-55.13</v>
       </c>
       <c r="E15" t="n">
-        <v>-50.28</v>
+        <v>-49.13</v>
       </c>
       <c r="F15" t="n">
-        <v>-54.68</v>
+        <v>-54.6</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8858,16 +8870,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.19</v>
+        <v>-42.29</v>
       </c>
       <c r="D16" t="n">
-        <v>-55.28</v>
+        <v>-55.35</v>
       </c>
       <c r="E16" t="n">
-        <v>-47.52</v>
+        <v>-47.98</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.86</v>
+        <v>-54.95</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -8948,16 +8960,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.51</v>
+        <v>-48.04</v>
       </c>
       <c r="D2" t="n">
-        <v>-46.05</v>
+        <v>-47.62</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.04</v>
+        <v>-48.73</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.59</v>
+        <v>-48.19</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -8976,16 +8988,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-48.49</v>
+        <v>-47.35</v>
       </c>
       <c r="D3" t="n">
-        <v>-47.87</v>
+        <v>-46.61</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.61</v>
+        <v>-48.01</v>
       </c>
       <c r="F3" t="n">
-        <v>-48.75</v>
+        <v>-47.77</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -9004,16 +9016,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-41.63</v>
+        <v>-40.62</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.64</v>
+        <v>-40.03</v>
       </c>
       <c r="E4" t="n">
-        <v>-43.13</v>
+        <v>-42.4</v>
       </c>
       <c r="F4" t="n">
-        <v>-41.91</v>
+        <v>-41.62</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9032,16 +9044,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.38</v>
+        <v>-46.17</v>
       </c>
       <c r="D5" t="n">
-        <v>-45.78</v>
+        <v>-45.63</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.3</v>
+        <v>-46.94</v>
       </c>
       <c r="F5" t="n">
-        <v>-46.56</v>
+        <v>-46.18</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9060,16 +9072,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-49.87</v>
+        <v>-47.59</v>
       </c>
       <c r="D6" t="n">
-        <v>-48.91</v>
+        <v>-46.97</v>
       </c>
       <c r="E6" t="n">
-        <v>-51.54</v>
+        <v>-48.55</v>
       </c>
       <c r="F6" t="n">
-        <v>-50.27</v>
+        <v>-48.12</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -9088,16 +9100,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-47.4</v>
+        <v>-48.36</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.24</v>
+        <v>-47</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.22</v>
+        <v>-48.99</v>
       </c>
       <c r="F7" t="n">
-        <v>-46.4</v>
+        <v>-48.18</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9116,16 +9128,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.96</v>
+        <v>-45.47</v>
       </c>
       <c r="D8" t="n">
-        <v>-46.87</v>
+        <v>-45.63</v>
       </c>
       <c r="E8" t="n">
-        <v>-47.09</v>
+        <v>-46.75</v>
       </c>
       <c r="F8" t="n">
-        <v>-47.64</v>
+        <v>-46.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9144,16 +9156,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.92</v>
+        <v>-44.16</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.16</v>
+        <v>-43.18</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.47</v>
+        <v>-45.73</v>
       </c>
       <c r="F9" t="n">
-        <v>-44.78</v>
+        <v>-45.12</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9172,16 +9184,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-41.15</v>
+        <v>-39.87</v>
       </c>
       <c r="D10" t="n">
-        <v>-42.54</v>
+        <v>-41.1</v>
       </c>
       <c r="E10" t="n">
-        <v>-42.71</v>
+        <v>-41.49</v>
       </c>
       <c r="F10" t="n">
-        <v>-44.21</v>
+        <v>-42.84</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9200,16 +9212,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-47.92</v>
+        <v>-47.34</v>
       </c>
       <c r="D11" t="n">
-        <v>-47.33</v>
+        <v>-47.51</v>
       </c>
       <c r="E11" t="n">
-        <v>-48.81</v>
+        <v>-48.47</v>
       </c>
       <c r="F11" t="n">
-        <v>-47.89</v>
+        <v>-47.94</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9228,16 +9240,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-48.71</v>
+        <v>-48.26</v>
       </c>
       <c r="D12" t="n">
-        <v>-50.3</v>
+        <v>-48.67</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.97</v>
+        <v>-49.31</v>
       </c>
       <c r="F12" t="n">
-        <v>-51.25</v>
+        <v>-50.05</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -9256,16 +9268,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-43.68</v>
+        <v>-44.13</v>
       </c>
       <c r="D13" t="n">
-        <v>-49.15</v>
+        <v>-49.57</v>
       </c>
       <c r="E13" t="n">
-        <v>-44.22</v>
+        <v>-44.73</v>
       </c>
       <c r="F13" t="n">
-        <v>-49.93</v>
+        <v>-50.48</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -9284,16 +9296,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-45.98</v>
+        <v>-45.83</v>
       </c>
       <c r="D14" t="n">
-        <v>-45.92</v>
+        <v>-45.65</v>
       </c>
       <c r="E14" t="n">
-        <v>-46.85</v>
+        <v>-46.92</v>
       </c>
       <c r="F14" t="n">
-        <v>-46.69</v>
+        <v>-46.92</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -9312,16 +9324,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-43.34</v>
+        <v>-41.24</v>
       </c>
       <c r="D15" t="n">
-        <v>-43.94</v>
+        <v>-41.63</v>
       </c>
       <c r="E15" t="n">
-        <v>-45.21</v>
+        <v>-42.85</v>
       </c>
       <c r="F15" t="n">
-        <v>-45.63</v>
+        <v>-43.25</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -9340,16 +9352,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.84</v>
+        <v>-39.21</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.31</v>
+        <v>-38.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.41</v>
+        <v>-40.76</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.92</v>
+        <v>-39.86</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>

--- a/results_3MHZ_LTE.xlsx
+++ b/results_3MHZ_LTE.xlsx
@@ -14,18 +14,21 @@
     <sheet name="PWR_16_F" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="PWR_64_P" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PWR_64_F" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ACLR_Q_P" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ACLR_Q_F" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ACLR_16_P" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ACLR_16_F" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="ACLR_64_P" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="ACLR_64_F" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="EVM_Q_P" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="EVM_Q_F" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="EVM_16_P" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="EVM_16_F" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="EVM_64_P" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="EVM_64_F" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="PWR_256_F" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ACLR_Q_P" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ACLR_Q_F" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ACLR_16_P" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ACLR_16_F" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ACLR_64_P" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ACLR_64_F" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ACLR_256_F" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="EVM_Q_P" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="EVM_Q_F" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="EVM_16_P" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="EVM_16_F" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="EVM_64_P" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="EVM_64_F" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="EVM_256_F" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -352,7 +355,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!C1</f>
+              <f>'ACLR_Q_F'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -371,12 +374,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$C$2:$C$16</f>
+              <f>'ACLR_Q_F'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -385,7 +388,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!D1</f>
+              <f>'ACLR_Q_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -404,12 +407,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$D$2:$D$16</f>
+              <f>'ACLR_Q_F'!$D$2:$D$16</f>
             </numRef>
           </val>
         </ser>
@@ -418,7 +421,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!E1</f>
+              <f>'ACLR_Q_F'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -436,12 +439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$E$2:$E$16</f>
+              <f>'ACLR_Q_F'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
@@ -450,7 +453,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!F1</f>
+              <f>'ACLR_Q_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -468,12 +471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$F$2:$F$16</f>
+              <f>'ACLR_Q_F'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -482,7 +485,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!G1</f>
+              <f>'ACLR_Q_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -500,12 +503,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$G$2:$G$16</f>
+              <f>'ACLR_Q_F'!$G$2:$G$16</f>
             </numRef>
           </val>
         </ser>
@@ -514,7 +517,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!H1</f>
+              <f>'ACLR_Q_F'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -532,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$H$2:$H$16</f>
+              <f>'ACLR_Q_F'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -635,7 +638,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!C1</f>
+              <f>'ACLR_16_P'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -654,12 +657,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$C$2:$C$16</f>
+              <f>'ACLR_16_P'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -668,7 +671,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!D1</f>
+              <f>'ACLR_16_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -687,12 +690,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$D$2:$D$16</f>
+              <f>'ACLR_16_P'!$D$2:$D$16</f>
             </numRef>
           </val>
         </ser>
@@ -701,7 +704,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!E1</f>
+              <f>'ACLR_16_P'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -719,12 +722,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$E$2:$E$16</f>
+              <f>'ACLR_16_P'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
@@ -733,7 +736,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!F1</f>
+              <f>'ACLR_16_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -751,12 +754,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$F$2:$F$16</f>
+              <f>'ACLR_16_P'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -765,7 +768,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!G1</f>
+              <f>'ACLR_16_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -783,12 +786,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$G$2:$G$16</f>
+              <f>'ACLR_16_P'!$G$2:$G$16</f>
             </numRef>
           </val>
         </ser>
@@ -797,7 +800,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!H1</f>
+              <f>'ACLR_16_P'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -815,12 +818,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$H$2:$H$16</f>
+              <f>'ACLR_16_P'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -918,7 +921,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!C1</f>
+              <f>'ACLR_16_F'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -937,12 +940,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$C$2:$C$16</f>
+              <f>'ACLR_16_F'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -951,7 +954,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!D1</f>
+              <f>'ACLR_16_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -970,12 +973,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$D$2:$D$16</f>
+              <f>'ACLR_16_F'!$D$2:$D$16</f>
             </numRef>
           </val>
         </ser>
@@ -984,7 +987,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!E1</f>
+              <f>'ACLR_16_F'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1002,12 +1005,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$E$2:$E$16</f>
+              <f>'ACLR_16_F'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
@@ -1016,7 +1019,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!F1</f>
+              <f>'ACLR_16_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1034,12 +1037,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$F$2:$F$16</f>
+              <f>'ACLR_16_F'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -1048,7 +1051,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!G1</f>
+              <f>'ACLR_16_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1066,12 +1069,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$G$2:$G$16</f>
+              <f>'ACLR_16_F'!$G$2:$G$16</f>
             </numRef>
           </val>
         </ser>
@@ -1080,7 +1083,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!H1</f>
+              <f>'ACLR_16_F'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1098,12 +1101,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$H$2:$H$16</f>
+              <f>'ACLR_16_F'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -1201,7 +1204,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!C1</f>
+              <f>'ACLR_64_P'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1220,12 +1223,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$C$2:$C$16</f>
+              <f>'ACLR_64_P'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -1234,7 +1237,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!D1</f>
+              <f>'ACLR_64_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1253,12 +1256,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$D$2:$D$16</f>
+              <f>'ACLR_64_P'!$D$2:$D$16</f>
             </numRef>
           </val>
         </ser>
@@ -1267,7 +1270,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!E1</f>
+              <f>'ACLR_64_P'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1285,12 +1288,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$E$2:$E$16</f>
+              <f>'ACLR_64_P'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
@@ -1299,7 +1302,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!F1</f>
+              <f>'ACLR_64_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1317,12 +1320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$F$2:$F$16</f>
+              <f>'ACLR_64_P'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -1331,7 +1334,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!G1</f>
+              <f>'ACLR_64_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1349,12 +1352,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$G$2:$G$16</f>
+              <f>'ACLR_64_P'!$G$2:$G$16</f>
             </numRef>
           </val>
         </ser>
@@ -1363,7 +1366,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!H1</f>
+              <f>'ACLR_64_P'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1381,12 +1384,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$H$2:$H$16</f>
+              <f>'ACLR_64_P'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -1470,7 +1473,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>EVM</a:t>
+              <a:t>ACLR</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1484,16 +1487,17 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_P'!B1</f>
+              <f>'ACLR_64_F'!C1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1502,12 +1506,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$B$2:$B$6</f>
+              <f>'ACLR_64_F'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -1516,39 +1520,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_P'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="50000">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_Q_P'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_Q_P'!D1</f>
+              <f>'ACLR_64_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1567,12 +1539,140 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$D$2:$D$6</f>
+              <f>'ACLR_64_F'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_F'!$E$2:$E$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_F'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_F'!$F$2:$F$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_F'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_F'!$G$2:$G$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_F'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_F'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -1610,6 +1710,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1622,7 +1724,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>EVM%</a:t>
+                  <a:t>ACLR(dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1654,7 +1756,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>EVM</a:t>
+              <a:t>ACLR</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1668,16 +1770,17 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_F'!B1</f>
+              <f>'ACLR_256_F'!C1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1686,12 +1789,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
+              <f>'ACLR_256_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$B$2:$B$6</f>
+              <f>'ACLR_256_F'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -1700,39 +1803,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_F'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="50000">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_Q_F'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_Q_F'!D1</f>
+              <f>'ACLR_256_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1751,12 +1822,140 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
+              <f>'ACLR_256_F'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$D$2:$D$6</f>
+              <f>'ACLR_256_F'!$D$2:$D$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_256_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_256_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_256_F'!$E$2:$E$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_256_F'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_256_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_256_F'!$F$2:$F$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_256_F'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_256_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_256_F'!$G$2:$G$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_256_F'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_256_F'!$A$2:$B$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_256_F'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -1794,6 +1993,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1806,7 +2007,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>EVM%</a:t>
+                  <a:t>ACLR(dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1852,7 +2053,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'EVM_16_P'!B1</f>
+              <f>'EVM_Q_P'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1870,12 +2071,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
+              <f>'EVM_Q_P'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$B$2:$B$6</f>
+              <f>'EVM_Q_P'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -1884,7 +2085,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'EVM_16_P'!C1</f>
+              <f>'EVM_Q_P'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1902,12 +2103,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
+              <f>'EVM_Q_P'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$C$2:$C$6</f>
+              <f>'EVM_Q_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -1916,7 +2117,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_16_P'!D1</f>
+              <f>'EVM_Q_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1935,12 +2136,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
+              <f>'EVM_Q_P'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$D$2:$D$6</f>
+              <f>'EVM_Q_P'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -2036,7 +2237,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'EVM_16_F'!B1</f>
+              <f>'EVM_Q_F'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2054,12 +2255,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
+              <f>'EVM_Q_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$B$2:$B$6</f>
+              <f>'EVM_Q_F'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -2068,7 +2269,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'EVM_16_F'!C1</f>
+              <f>'EVM_Q_F'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2086,12 +2287,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
+              <f>'EVM_Q_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$C$2:$C$6</f>
+              <f>'EVM_Q_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -2100,7 +2301,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_16_F'!D1</f>
+              <f>'EVM_Q_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2119,12 +2320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
+              <f>'EVM_Q_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$D$2:$D$6</f>
+              <f>'EVM_Q_F'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -2220,7 +2421,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'EVM_64_P'!B1</f>
+              <f>'EVM_16_P'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2238,12 +2439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
+              <f>'EVM_16_P'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$B$2:$B$6</f>
+              <f>'EVM_16_P'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -2252,7 +2453,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'EVM_64_P'!C1</f>
+              <f>'EVM_16_P'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2270,12 +2471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
+              <f>'EVM_16_P'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$C$2:$C$6</f>
+              <f>'EVM_16_P'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -2284,7 +2485,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_64_P'!D1</f>
+              <f>'EVM_16_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2303,12 +2504,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
+              <f>'EVM_16_P'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$D$2:$D$6</f>
+              <f>'EVM_16_P'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -2404,7 +2605,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'EVM_64_F'!B1</f>
+              <f>'EVM_16_F'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2422,12 +2623,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
+              <f>'EVM_16_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$B$2:$B$6</f>
+              <f>'EVM_16_F'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -2436,7 +2637,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'EVM_64_F'!C1</f>
+              <f>'EVM_16_F'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2454,12 +2655,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
+              <f>'EVM_16_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$C$2:$C$6</f>
+              <f>'EVM_16_F'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -2468,7 +2669,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_64_F'!D1</f>
+              <f>'EVM_16_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2487,12 +2688,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
+              <f>'EVM_16_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$D$2:$D$6</f>
+              <f>'EVM_16_F'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -2746,6 +2947,558 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>EVM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_P'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_P'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_P'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_P'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_P'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_P'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Band</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>EVM%</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>EVM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_F'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_F'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_F'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_F'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Band</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>EVM%</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>EVM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'EVM_256_F'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_256_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_256_F'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_256_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_256_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_256_F'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'EVM_256_F'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_256_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_256_F'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Band</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="low"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>EVM%</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -3678,7 +4431,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>ACLR</a:t>
+              <a:t>PWR</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -3692,17 +4445,16 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_P'!C1</f>
+              <f>'PWR_256_F'!B1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="triangle"/>
-            <size val="10"/>
+            <symbol val="none"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3711,12 +4463,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'PWR_256_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$C$2:$C$16</f>
+              <f>'PWR_256_F'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -3725,7 +4477,39 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_P'!D1</f>
+              <f>'PWR_256_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_256_F'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_256_F'!$C$2:$C$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'PWR_256_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3744,140 +4528,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'PWR_256_F'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$D$2:$D$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_P'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="50000">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'ACLR_Q_P'!$E$2:$E$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_P'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="50000">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'ACLR_Q_P'!$F$2:$F$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'ACLR_Q_P'!$G$2:$G$16</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_P'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'ACLR_Q_P'!$H$2:$H$16</f>
+              <f>'PWR_256_F'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -3915,8 +4571,6 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="-20"/>
-          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3929,7 +4583,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>ACLR(dB)</a:t>
+                  <a:t>PWR(dBm)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3975,7 +4629,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!C1</f>
+              <f>'ACLR_Q_P'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3994,12 +4648,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$C$2:$C$16</f>
+              <f>'ACLR_Q_P'!$C$2:$C$16</f>
             </numRef>
           </val>
         </ser>
@@ -4008,7 +4662,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!D1</f>
+              <f>'ACLR_Q_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -4027,12 +4681,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$D$2:$D$16</f>
+              <f>'ACLR_Q_P'!$D$2:$D$16</f>
             </numRef>
           </val>
         </ser>
@@ -4041,7 +4695,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!E1</f>
+              <f>'ACLR_Q_P'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -4059,12 +4713,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$E$2:$E$16</f>
+              <f>'ACLR_Q_P'!$E$2:$E$16</f>
             </numRef>
           </val>
         </ser>
@@ -4073,7 +4727,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!F1</f>
+              <f>'ACLR_Q_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -4091,12 +4745,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$F$2:$F$16</f>
+              <f>'ACLR_Q_P'!$F$2:$F$16</f>
             </numRef>
           </val>
         </ser>
@@ -4105,7 +4759,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!G1</f>
+              <f>'ACLR_Q_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -4123,12 +4777,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$G$2:$G$16</f>
+              <f>'ACLR_Q_P'!$G$2:$G$16</f>
             </numRef>
           </val>
         </ser>
@@ -4137,7 +4791,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!H1</f>
+              <f>'ACLR_Q_P'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -4155,12 +4809,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$H$2:$H$16</f>
+              <f>'ACLR_Q_P'!$H$2:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -4371,12 +5025,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11520000" cy="7200000"/>
+    <ext cx="14400000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4398,12 +5052,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11520000" cy="7200000"/>
+    <ext cx="14400000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4530,6 +5184,87 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11520000" cy="7200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11520000" cy="7200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11520000" cy="7200000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -4695,12 +5430,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>5</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5069,13 +5804,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.45</v>
+        <v>24.58</v>
       </c>
       <c r="C2" t="n">
-        <v>24.53</v>
+        <v>24.43</v>
       </c>
       <c r="D2" t="n">
-        <v>24.41</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="3">
@@ -5083,13 +5818,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.51</v>
+        <v>24.44</v>
       </c>
       <c r="C3" t="n">
-        <v>24.47</v>
+        <v>23.9</v>
       </c>
       <c r="D3" t="n">
-        <v>24.54</v>
+        <v>24.53</v>
       </c>
     </row>
     <row r="4">
@@ -5097,13 +5832,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.95</v>
+        <v>24.17</v>
       </c>
       <c r="C4" t="n">
-        <v>24.04</v>
+        <v>23.99</v>
       </c>
       <c r="D4" t="n">
-        <v>24.02</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="5">
@@ -5111,13 +5846,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.38</v>
+        <v>24.53</v>
       </c>
       <c r="C5" t="n">
-        <v>24.47</v>
+        <v>24.4</v>
       </c>
       <c r="D5" t="n">
-        <v>24.37</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="6">
@@ -5128,7 +5863,7 @@
         <v>24.31</v>
       </c>
       <c r="C6" t="n">
-        <v>24.34</v>
+        <v>23.74</v>
       </c>
       <c r="D6" t="n">
         <v>24.29</v>
@@ -5206,16 +5941,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.83</v>
+        <v>-48.42</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.83</v>
+        <v>-47.96</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.71</v>
+        <v>-49.71</v>
       </c>
       <c r="F2" t="n">
-        <v>-53.93</v>
+        <v>-48.93</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5234,16 +5969,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-47.15</v>
+        <v>-49</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.33</v>
+        <v>-47.84</v>
       </c>
       <c r="E3" t="n">
-        <v>-50.33</v>
+        <v>-50.04</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.65</v>
+        <v>-49.36</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5262,16 +5997,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-42.07</v>
+        <v>-41.24</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.15</v>
+        <v>-40.51</v>
       </c>
       <c r="E4" t="n">
-        <v>-48.16</v>
+        <v>-42.89</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.68</v>
+        <v>-42.23</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5290,16 +6025,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.19</v>
+        <v>-45.55</v>
       </c>
       <c r="D5" t="n">
-        <v>-54.87</v>
+        <v>-44.54</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.59</v>
+        <v>-46.47</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.24</v>
+        <v>-45.12</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5318,16 +6053,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.16</v>
+        <v>-47.2</v>
       </c>
       <c r="D6" t="n">
-        <v>-55.01</v>
+        <v>-46.82</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.88</v>
+        <v>-48.66</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.49</v>
+        <v>-48.08</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5346,16 +6081,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-44.26</v>
+        <v>-48.16</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.54</v>
+        <v>-45.96</v>
       </c>
       <c r="E7" t="n">
-        <v>-47.9</v>
+        <v>-49.13</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.11</v>
+        <v>-46.97</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5374,16 +6109,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.32</v>
+        <v>-44.77</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.44</v>
+        <v>-45.31</v>
       </c>
       <c r="E8" t="n">
-        <v>-49.63</v>
+        <v>-46.08</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.58</v>
+        <v>-46.47</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5402,16 +6137,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.74</v>
+        <v>-44.14</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.85</v>
+        <v>-43.58</v>
       </c>
       <c r="E9" t="n">
-        <v>-49.48</v>
+        <v>-45.95</v>
       </c>
       <c r="F9" t="n">
-        <v>-53.97</v>
+        <v>-45.47</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5430,16 +6165,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-43.16</v>
+        <v>-40.33</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.12</v>
+        <v>-41.26</v>
       </c>
       <c r="E10" t="n">
-        <v>-49.02</v>
+        <v>-42.17</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.5</v>
+        <v>-42.99</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5458,16 +6193,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.39</v>
+        <v>-46.57</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.76</v>
+        <v>-45.71</v>
       </c>
       <c r="E11" t="n">
-        <v>-48.44</v>
+        <v>-47.31</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.09</v>
+        <v>-46.75</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5486,16 +6221,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.72</v>
+        <v>-47.64</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.08</v>
+        <v>-48.6</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.77</v>
+        <v>-48.87</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.27</v>
+        <v>-49.96</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5514,16 +6249,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-44.32</v>
+        <v>-43.67</v>
       </c>
       <c r="D13" t="n">
-        <v>-56.32</v>
+        <v>-48.18</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.44</v>
+        <v>-44.14</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.88</v>
+        <v>-49.43</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5542,16 +6277,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-44.6</v>
+        <v>-44.13</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.75</v>
+        <v>-45</v>
       </c>
       <c r="E14" t="n">
-        <v>-49.5</v>
+        <v>-45.41</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.03</v>
+        <v>-46.04</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5570,16 +6305,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-42.52</v>
+        <v>-40.72</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.74</v>
+        <v>-41.31</v>
       </c>
       <c r="E15" t="n">
-        <v>-48.83</v>
+        <v>-42.26</v>
       </c>
       <c r="F15" t="n">
-        <v>-54.27</v>
+        <v>-43.04</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5598,16 +6333,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.5</v>
+        <v>-40.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.6</v>
+        <v>-38.23</v>
       </c>
       <c r="E16" t="n">
-        <v>-46.63</v>
+        <v>-41.66</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.23</v>
+        <v>-40.01</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5688,16 +6423,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.07</v>
+        <v>-44.67</v>
       </c>
       <c r="D2" t="n">
-        <v>-45.72</v>
+        <v>-55.06</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.97</v>
+        <v>-48.65</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.42</v>
+        <v>-54.54</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5716,16 +6451,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-44.51</v>
+        <v>-45.95</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.91</v>
+        <v>-55.2</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.44</v>
+        <v>-49.57</v>
       </c>
       <c r="F3" t="n">
-        <v>-45.89</v>
+        <v>-54.58</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5744,16 +6479,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-38.53</v>
+        <v>-42.62</v>
       </c>
       <c r="D4" t="n">
-        <v>-38.31</v>
+        <v>-55.51</v>
       </c>
       <c r="E4" t="n">
-        <v>-40.19</v>
+        <v>-48.44</v>
       </c>
       <c r="F4" t="n">
-        <v>-40.07</v>
+        <v>-55.15</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5772,16 +6507,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.09</v>
+        <v>-43.31</v>
       </c>
       <c r="D5" t="n">
-        <v>-45.08</v>
+        <v>-54.81</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.94</v>
+        <v>-48.1</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.41</v>
+        <v>-54.24</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5800,16 +6535,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-44.2</v>
+        <v>-46.5</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.39</v>
+        <v>-54.82</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.29</v>
+        <v>-49.99</v>
       </c>
       <c r="F6" t="n">
-        <v>-45.35</v>
+        <v>-54.2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5828,16 +6563,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-41.39</v>
+        <v>-43.81</v>
       </c>
       <c r="D7" t="n">
-        <v>-42.83</v>
+        <v>-55.77</v>
       </c>
       <c r="E7" t="n">
-        <v>-42.47</v>
+        <v>-48.59</v>
       </c>
       <c r="F7" t="n">
-        <v>-43.98</v>
+        <v>-55.33</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5856,16 +6591,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-43.14</v>
+        <v>-46.03</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.3</v>
+        <v>-54.6</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.04</v>
+        <v>-50.29</v>
       </c>
       <c r="F8" t="n">
-        <v>-44.22</v>
+        <v>-53.83</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5884,16 +6619,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.06</v>
+        <v>-46.34</v>
       </c>
       <c r="D9" t="n">
-        <v>-41.24</v>
+        <v>-54.66</v>
       </c>
       <c r="E9" t="n">
-        <v>-43.75</v>
+        <v>-49.97</v>
       </c>
       <c r="F9" t="n">
-        <v>-43.13</v>
+        <v>-53.74</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5912,16 +6647,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.75</v>
+        <v>-42.46</v>
       </c>
       <c r="D10" t="n">
-        <v>-40.52</v>
+        <v>-54.29</v>
       </c>
       <c r="E10" t="n">
-        <v>-41.33</v>
+        <v>-48.54</v>
       </c>
       <c r="F10" t="n">
-        <v>-42.12</v>
+        <v>-53.47</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5940,16 +6675,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-42.63</v>
+        <v>-43.41</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.22</v>
+        <v>-54.98</v>
       </c>
       <c r="E11" t="n">
-        <v>-43.95</v>
+        <v>-48.65</v>
       </c>
       <c r="F11" t="n">
-        <v>-43.35</v>
+        <v>-54.47</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5968,16 +6703,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-40.02</v>
+        <v>-46.81</v>
       </c>
       <c r="D12" t="n">
-        <v>-40.69</v>
+        <v>-55.62</v>
       </c>
       <c r="E12" t="n">
-        <v>-41.58</v>
+        <v>-49.91</v>
       </c>
       <c r="F12" t="n">
-        <v>-42.35</v>
+        <v>-54.91</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5996,16 +6731,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-40.66</v>
+        <v>-42.49</v>
       </c>
       <c r="D13" t="n">
-        <v>-43.97</v>
+        <v>-57.26</v>
       </c>
       <c r="E13" t="n">
-        <v>-41.06</v>
+        <v>-46.75</v>
       </c>
       <c r="F13" t="n">
-        <v>-44.28</v>
+        <v>-56.96</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6024,16 +6759,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-43.05</v>
+        <v>-45.81</v>
       </c>
       <c r="D14" t="n">
-        <v>-43.4</v>
+        <v>-54.91</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.35</v>
+        <v>-50.28</v>
       </c>
       <c r="F14" t="n">
-        <v>-44.54</v>
+        <v>-54.18</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6052,16 +6787,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.86</v>
+        <v>-42.47</v>
       </c>
       <c r="D15" t="n">
-        <v>-42.47</v>
+        <v>-54.54</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.48</v>
+        <v>-48.95</v>
       </c>
       <c r="F15" t="n">
-        <v>-44.23</v>
+        <v>-53.72</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6080,16 +6815,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.81</v>
+        <v>-40.17</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.7</v>
+        <v>-54.83</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.23</v>
+        <v>-47.05</v>
       </c>
       <c r="F16" t="n">
-        <v>-40.22</v>
+        <v>-54.49</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6170,16 +6905,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.07</v>
+        <v>-46.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.14</v>
+        <v>-45.38</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.66</v>
+        <v>-47.12</v>
       </c>
       <c r="F2" t="n">
-        <v>-53.52</v>
+        <v>-46.71</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6198,16 +6933,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-46.34</v>
+        <v>-45.39</v>
       </c>
       <c r="D3" t="n">
-        <v>-54.76</v>
+        <v>-45.56</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.16</v>
+        <v>-46.31</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.22</v>
+        <v>-46.8</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6226,16 +6961,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-41.34</v>
+        <v>-37.9</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.77</v>
+        <v>-37.86</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.42</v>
+        <v>-39.57</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.28</v>
+        <v>-39.51</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6254,16 +6989,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.52</v>
+        <v>-43.42</v>
       </c>
       <c r="D5" t="n">
-        <v>-53.89</v>
+        <v>-42.7</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.55</v>
+        <v>-44.37</v>
       </c>
       <c r="F5" t="n">
-        <v>-53.56</v>
+        <v>-43.4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6282,16 +7017,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-44.81</v>
+        <v>-42.54</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.52</v>
+        <v>-42.34</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.08</v>
+        <v>-43.83</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.11</v>
+        <v>-43.51</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6310,16 +7045,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.37</v>
+        <v>-43.54</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.64</v>
+        <v>-45.04</v>
       </c>
       <c r="E7" t="n">
-        <v>-49.52</v>
+        <v>-44.25</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.34</v>
+        <v>-45.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6338,16 +7073,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44</v>
+        <v>-42.21</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.37</v>
+        <v>-43.05</v>
       </c>
       <c r="E8" t="n">
-        <v>-48.21</v>
+        <v>-43.12</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.75</v>
+        <v>-43.94</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6366,16 +7101,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.36</v>
+        <v>-42.18</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.22</v>
+        <v>-41.83</v>
       </c>
       <c r="E9" t="n">
-        <v>-49.29</v>
+        <v>-43.82</v>
       </c>
       <c r="F9" t="n">
-        <v>-53.5</v>
+        <v>-43.44</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6394,16 +7129,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-43.56</v>
+        <v>-38.13</v>
       </c>
       <c r="D10" t="n">
-        <v>-54</v>
+        <v>-38.59</v>
       </c>
       <c r="E10" t="n">
-        <v>-48.58</v>
+        <v>-39.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.39</v>
+        <v>-40.32</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6422,16 +7157,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-46.64</v>
+        <v>-42.52</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.32</v>
+        <v>-42.3</v>
       </c>
       <c r="E11" t="n">
-        <v>-50.14</v>
+        <v>-43.8</v>
       </c>
       <c r="F11" t="n">
-        <v>-53.62</v>
+        <v>-43.41</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6450,16 +7185,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-45.4</v>
+        <v>-41.92</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.14</v>
+        <v>-42.37</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.2</v>
+        <v>-43.09</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.62</v>
+        <v>-43.74</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6478,16 +7213,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.26</v>
+        <v>-41.05</v>
       </c>
       <c r="D13" t="n">
-        <v>-54.88</v>
+        <v>-44.15</v>
       </c>
       <c r="E13" t="n">
-        <v>-45.26</v>
+        <v>-41.29</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.13</v>
+        <v>-44.53</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6506,16 +7241,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.38</v>
+        <v>-42.39</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.07</v>
+        <v>-43.1</v>
       </c>
       <c r="E14" t="n">
-        <v>-48.15</v>
+        <v>-44.02</v>
       </c>
       <c r="F14" t="n">
-        <v>-53.55</v>
+        <v>-44.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6534,16 +7269,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-44.04</v>
+        <v>-41.07</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.55</v>
+        <v>-41.52</v>
       </c>
       <c r="E15" t="n">
-        <v>-49.55</v>
+        <v>-42.65</v>
       </c>
       <c r="F15" t="n">
-        <v>-53.77</v>
+        <v>-43.28</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6562,16 +7297,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.42</v>
+        <v>-38.79</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.37</v>
+        <v>-38</v>
       </c>
       <c r="E16" t="n">
-        <v>-46.18</v>
+        <v>-40.45</v>
       </c>
       <c r="F16" t="n">
-        <v>-53.79</v>
+        <v>-39.82</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6652,16 +7387,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.28</v>
+        <v>-43.32</v>
       </c>
       <c r="D2" t="n">
-        <v>-43.95</v>
+        <v>-54.77</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.33</v>
+        <v>-48.69</v>
       </c>
       <c r="F2" t="n">
-        <v>-44.55</v>
+        <v>-54.66</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6680,16 +7415,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-44.51</v>
+        <v>-47.38</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.55</v>
+        <v>-55.42</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.5</v>
+        <v>-49.88</v>
       </c>
       <c r="F3" t="n">
-        <v>-45.76</v>
+        <v>-55.11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6708,16 +7443,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-37.79</v>
+        <v>-41.88</v>
       </c>
       <c r="D4" t="n">
-        <v>-37.82</v>
+        <v>-54.84</v>
       </c>
       <c r="E4" t="n">
-        <v>-39.49</v>
+        <v>-47.75</v>
       </c>
       <c r="F4" t="n">
-        <v>-39.54</v>
+        <v>-54.82</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6736,16 +7471,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.6</v>
+        <v>-46.55</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.78</v>
+        <v>-53.97</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.91</v>
+        <v>-49.55</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.35</v>
+        <v>-53.65</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6764,16 +7499,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-44.43</v>
+        <v>-46.98</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.06</v>
+        <v>-54.24</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.37</v>
+        <v>-49.48</v>
       </c>
       <c r="F6" t="n">
-        <v>-45.42</v>
+        <v>-53.88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6792,16 +7527,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-45.36</v>
+        <v>-42.5</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.32</v>
+        <v>-55.32</v>
       </c>
       <c r="E7" t="n">
-        <v>-45.76</v>
+        <v>-47.61</v>
       </c>
       <c r="F7" t="n">
-        <v>-46.13</v>
+        <v>-55.39</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6820,16 +7555,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-43.14</v>
+        <v>-45.5</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.88</v>
+        <v>-54.11</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.57</v>
+        <v>-49.41</v>
       </c>
       <c r="F8" t="n">
-        <v>-44.29</v>
+        <v>-53.6</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6848,16 +7583,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.97</v>
+        <v>-44.65</v>
       </c>
       <c r="D9" t="n">
-        <v>-42.55</v>
+        <v>-55.3</v>
       </c>
       <c r="E9" t="n">
-        <v>-44.49</v>
+        <v>-49.83</v>
       </c>
       <c r="F9" t="n">
-        <v>-44.1</v>
+        <v>-54.7</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6876,16 +7611,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-38.91</v>
+        <v>-43.14</v>
       </c>
       <c r="D10" t="n">
-        <v>-39.69</v>
+        <v>-54.02</v>
       </c>
       <c r="E10" t="n">
-        <v>-40.57</v>
+        <v>-48.46</v>
       </c>
       <c r="F10" t="n">
-        <v>-41.32</v>
+        <v>-53.37</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6904,16 +7639,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-41.93</v>
+        <v>-44.29</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.18</v>
+        <v>-54.63</v>
       </c>
       <c r="E11" t="n">
-        <v>-43.15</v>
+        <v>-49.13</v>
       </c>
       <c r="F11" t="n">
-        <v>-43.27</v>
+        <v>-54.21</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6932,16 +7667,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-44.22</v>
+        <v>-43</v>
       </c>
       <c r="D12" t="n">
-        <v>-45.35</v>
+        <v>-55.14</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.16</v>
+        <v>-48.01</v>
       </c>
       <c r="F12" t="n">
-        <v>-46.26</v>
+        <v>-54.81</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6960,16 +7695,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-39.79</v>
+        <v>-41.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-43.62</v>
+        <v>-55.32</v>
       </c>
       <c r="E13" t="n">
-        <v>-40.37</v>
+        <v>-45.2</v>
       </c>
       <c r="F13" t="n">
-        <v>-44.01</v>
+        <v>-56.28</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6988,16 +7723,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.02</v>
+        <v>-41.78</v>
       </c>
       <c r="D14" t="n">
-        <v>-42.19</v>
+        <v>-54.34</v>
       </c>
       <c r="E14" t="n">
-        <v>-43.29</v>
+        <v>-47.36</v>
       </c>
       <c r="F14" t="n">
-        <v>-43.14</v>
+        <v>-54.04</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7016,16 +7751,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.59</v>
+        <v>-44.52</v>
       </c>
       <c r="D15" t="n">
-        <v>-41.95</v>
+        <v>-54.05</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.18</v>
+        <v>-49.55</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.7</v>
+        <v>-53.31</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7044,16 +7779,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.98</v>
+        <v>-40.51</v>
       </c>
       <c r="D16" t="n">
-        <v>-37.98</v>
+        <v>-54.63</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.58</v>
+        <v>-46.77</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.62</v>
+        <v>-54.28</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -7074,7 +7809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7090,17 +7825,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ch0</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ch1</t>
+          <t>EUTRA_-1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ch2</t>
+          <t>EUTRA_+1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>UTRA_-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>UTRA_+1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>UTRA_-2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>UTRA_+2</t>
         </is>
       </c>
     </row>
@@ -7108,70 +7863,420 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.26</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2.35</v>
+        <v>-45.3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33</v>
+        <v>-44.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-45.82</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-45.44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.51</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1.97</v>
+        <v>-44.22</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47</v>
+        <v>-44.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-45.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-45.32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.45</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2.98</v>
+        <v>-38.87</v>
       </c>
       <c r="D4" t="n">
-        <v>2.92</v>
+        <v>-38.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-40.73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-40.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.95</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3.05</v>
+        <v>-43.08</v>
       </c>
       <c r="D5" t="n">
-        <v>2.48</v>
+        <v>-42.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-44.11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-43.21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-46.71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-46.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-47.98</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-47.59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-42.37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-42.44</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-43.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-43.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-41.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-41.92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-43.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-42.93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-43.08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-44.34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-44.48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-39.35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-40.23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-40.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-41.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-45.82</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-45.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-46.95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-46.42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-43.24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-43.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-44.58</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-41.06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-44.92</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-41.43</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-45.39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>66</v>
       </c>
-      <c r="B6" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.41</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-41.32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-41.73</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-42.57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-42.78</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-41.03</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-41.46</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-42.67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-43.32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-39.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-38.08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-40.77</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-39.99</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7186,7 +8291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7202,17 +8307,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ch0</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ch1</t>
+          <t>EUTRA_-1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ch2</t>
+          <t>EUTRA_+1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>UTRA_-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>UTRA_+1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>UTRA_-2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>UTRA_+2</t>
         </is>
       </c>
     </row>
@@ -7220,70 +8345,420 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.79</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.84</v>
+        <v>-41.64</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>-41.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-42.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-42.61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.97</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.82</v>
+        <v>-41.55</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93</v>
+        <v>-41.84</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-42.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-43.28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.93</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1.09</v>
+        <v>-40.46</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>-40.36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-41.89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-41.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.92</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.92</v>
+        <v>-39.72</v>
       </c>
       <c r="D5" t="n">
-        <v>0.92</v>
+        <v>-39.02</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-41.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-40.45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-42.01</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-42.98</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-43.02</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-42.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-42.59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-42.85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-43.52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-39.41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-38.92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-41.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-40.36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-40.99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-41.66</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-42.41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-43.16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-39.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-39.67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-41.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-41.21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-41.32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-40.94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-42.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-42.24</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-42.21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-42.58</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-43.34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-43.74</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-40.51</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-43.23</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-41.51</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-44.46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>66</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.62</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-39.51</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-38.85</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-41.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-40.47</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-39.51</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-40.13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-41.14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-41.66</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-39.56</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-40.82</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-40.91</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-42.37</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7333,13 +8808,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.79</v>
+        <v>2.5</v>
       </c>
       <c r="C2" t="n">
-        <v>4.03</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3">
@@ -7347,13 +8822,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="C3" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -7361,13 +8836,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3.29</v>
+        <v>2.52</v>
       </c>
       <c r="C4" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="D4" t="n">
-        <v>3.43</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="5">
@@ -7375,13 +8850,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="C5" t="n">
-        <v>3.28</v>
+        <v>2.48</v>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -7389,13 +8864,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="C6" t="n">
-        <v>3.71</v>
+        <v>2.9</v>
       </c>
       <c r="D6" t="n">
-        <v>4.39</v>
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
@@ -7445,13 +8920,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.07</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>1.01</v>
+        <v>0.79</v>
       </c>
       <c r="D2" t="n">
-        <v>1.92</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -7459,13 +8934,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="C3" t="n">
-        <v>1.21</v>
+        <v>0.85</v>
       </c>
       <c r="D3" t="n">
-        <v>1.26</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -7473,13 +8948,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.31</v>
+        <v>0.91</v>
       </c>
       <c r="C4" t="n">
-        <v>1.54</v>
+        <v>0.95</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -7487,13 +8962,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.51</v>
+        <v>0.84</v>
       </c>
       <c r="C5" t="n">
-        <v>1.58</v>
+        <v>0.73</v>
       </c>
       <c r="D5" t="n">
-        <v>1.24</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -7501,13 +8976,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.23</v>
+        <v>0.79</v>
       </c>
       <c r="C6" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="D6" t="n">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -7557,13 +9032,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.49</v>
+        <v>3.22</v>
       </c>
       <c r="C2" t="n">
-        <v>2.26</v>
+        <v>2.57</v>
       </c>
       <c r="D2" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="3">
@@ -7571,13 +9046,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.52</v>
+        <v>2.99</v>
       </c>
       <c r="C3" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="D3" t="n">
-        <v>2.49</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="4">
@@ -7585,13 +9060,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="C4" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -7599,13 +9074,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>2.41</v>
+        <v>2.01</v>
       </c>
       <c r="C5" t="n">
-        <v>2.61</v>
+        <v>2.87</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -7613,13 +9088,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.69</v>
+        <v>3.13</v>
       </c>
       <c r="C6" t="n">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="D6" t="n">
-        <v>3.76</v>
+        <v>3.42</v>
       </c>
     </row>
   </sheetData>
@@ -7669,13 +9144,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
@@ -7683,13 +9158,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="C3" t="n">
-        <v>0.96</v>
+        <v>1.66</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
@@ -7697,13 +9172,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -7711,13 +9186,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="C5" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="D5" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -7725,13 +9200,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="C6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="D6" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -7781,13 +9256,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="C2" t="n">
         <v>24.47</v>
       </c>
-      <c r="C2" t="n">
-        <v>24.51</v>
-      </c>
       <c r="D2" t="n">
-        <v>24.45</v>
+        <v>24.57</v>
       </c>
     </row>
     <row r="3">
@@ -7798,10 +9273,10 @@
         <v>24.57</v>
       </c>
       <c r="C3" t="n">
-        <v>24.56</v>
+        <v>24.6</v>
       </c>
       <c r="D3" t="n">
-        <v>24.59</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="4">
@@ -7809,13 +9284,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.06</v>
+        <v>24.12</v>
       </c>
       <c r="C4" t="n">
-        <v>24.03</v>
+        <v>23.94</v>
       </c>
       <c r="D4" t="n">
-        <v>24.09</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="5">
@@ -7823,13 +9298,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.38</v>
+        <v>24.4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.49</v>
+        <v>24.54</v>
       </c>
       <c r="D5" t="n">
-        <v>24.42</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="6">
@@ -7837,13 +9312,349 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>24.34</v>
+        <v>24.29</v>
       </c>
       <c r="C6" t="n">
         <v>24.29</v>
       </c>
       <c r="D6" t="n">
-        <v>24.41</v>
+        <v>24.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Band</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ch0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ch1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Band</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ch0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ch1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Band</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ch0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ch1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.99</v>
       </c>
     </row>
   </sheetData>
@@ -7893,13 +9704,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.41</v>
+        <v>23.5</v>
       </c>
       <c r="C2" t="n">
-        <v>23.45</v>
+        <v>23.51</v>
       </c>
       <c r="D2" t="n">
-        <v>23.39</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="3">
@@ -7907,13 +9718,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.48</v>
+        <v>23.53</v>
       </c>
       <c r="C3" t="n">
-        <v>23.55</v>
+        <v>23.56</v>
       </c>
       <c r="D3" t="n">
-        <v>23.52</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="4">
@@ -7921,13 +9732,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.95</v>
+        <v>23.05</v>
       </c>
       <c r="C4" t="n">
         <v>23.05</v>
       </c>
       <c r="D4" t="n">
-        <v>23.12</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="5">
@@ -7935,13 +9746,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.34</v>
+        <v>23.46</v>
       </c>
       <c r="C5" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D5" t="n">
         <v>23.38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.23</v>
       </c>
     </row>
     <row r="6">
@@ -7949,13 +9760,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>23.3</v>
+        <v>23.33</v>
       </c>
       <c r="C6" t="n">
-        <v>23.31</v>
+        <v>23.39</v>
       </c>
       <c r="D6" t="n">
-        <v>23.31</v>
+        <v>23.36</v>
       </c>
     </row>
   </sheetData>
@@ -8005,13 +9816,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.29</v>
+        <v>23.65</v>
       </c>
       <c r="C2" t="n">
-        <v>23.6</v>
+        <v>23.62</v>
       </c>
       <c r="D2" t="n">
-        <v>23.45</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="3">
@@ -8019,13 +9830,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.33</v>
+        <v>23.61</v>
       </c>
       <c r="C3" t="n">
-        <v>23.72</v>
+        <v>23.68</v>
       </c>
       <c r="D3" t="n">
-        <v>23.71</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="4">
@@ -8033,13 +9844,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.98</v>
+        <v>23.05</v>
       </c>
       <c r="C4" t="n">
-        <v>23.06</v>
+        <v>22.99</v>
       </c>
       <c r="D4" t="n">
-        <v>23.13</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="5">
@@ -8047,13 +9858,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.47</v>
+        <v>23.58</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="D5" t="n">
-        <v>23.3</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="6">
@@ -8061,13 +9872,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C6" t="n">
         <v>23.29</v>
       </c>
-      <c r="C6" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D6" t="n">
-        <v>23.37</v>
+        <v>23.62</v>
       </c>
     </row>
   </sheetData>
@@ -8117,13 +9928,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.36</v>
+        <v>21.54</v>
       </c>
       <c r="C2" t="n">
-        <v>21.58</v>
+        <v>21.55</v>
       </c>
       <c r="D2" t="n">
-        <v>21.33</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="3">
@@ -8131,13 +9942,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.38</v>
+        <v>22.43</v>
       </c>
       <c r="C3" t="n">
-        <v>22.57</v>
+        <v>22.44</v>
       </c>
       <c r="D3" t="n">
-        <v>22.46</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="4">
@@ -8145,13 +9956,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>21.97</v>
+        <v>22.12</v>
       </c>
       <c r="C4" t="n">
-        <v>21.99</v>
+        <v>22.11</v>
       </c>
       <c r="D4" t="n">
-        <v>21.93</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="5">
@@ -8159,13 +9970,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.32</v>
+        <v>22.43</v>
       </c>
       <c r="C5" t="n">
-        <v>22.38</v>
+        <v>22.43</v>
       </c>
       <c r="D5" t="n">
-        <v>22.06</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="6">
@@ -8173,13 +9984,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>21.22</v>
+        <v>21.37</v>
       </c>
       <c r="C6" t="n">
-        <v>21.32</v>
+        <v>21.35</v>
       </c>
       <c r="D6" t="n">
-        <v>21.26</v>
+        <v>21.35</v>
       </c>
     </row>
   </sheetData>
@@ -8229,13 +10040,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>22.43</v>
+        <v>22.62</v>
       </c>
       <c r="C2" t="n">
-        <v>22.41</v>
+        <v>22.45</v>
       </c>
       <c r="D2" t="n">
-        <v>22.61</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="3">
@@ -8243,13 +10054,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.72</v>
+        <v>22.53</v>
       </c>
       <c r="C3" t="n">
-        <v>22.75</v>
+        <v>22.25</v>
       </c>
       <c r="D3" t="n">
-        <v>22.54</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="4">
@@ -8257,13 +10068,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.13</v>
+        <v>21.95</v>
       </c>
       <c r="C4" t="n">
-        <v>21.99</v>
+        <v>22.02</v>
       </c>
       <c r="D4" t="n">
-        <v>22.12</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="5">
@@ -8271,13 +10082,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.33</v>
+        <v>22.63</v>
       </c>
       <c r="C5" t="n">
-        <v>22.32</v>
+        <v>22.46</v>
       </c>
       <c r="D5" t="n">
-        <v>22.49</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="6">
@@ -8285,13 +10096,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="C6" t="n">
         <v>22.19</v>
       </c>
-      <c r="C6" t="n">
-        <v>22.37</v>
-      </c>
       <c r="D6" t="n">
-        <v>22.37</v>
+        <v>22.45</v>
       </c>
     </row>
   </sheetData>
@@ -8341,13 +10152,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.58</v>
+        <v>21.47</v>
       </c>
       <c r="C2" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="D2" t="n">
-        <v>21.55</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="3">
@@ -8355,13 +10166,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21.62</v>
+        <v>21.61</v>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>21.59</v>
       </c>
       <c r="D3" t="n">
-        <v>21.44</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="4">
@@ -8369,13 +10180,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>20.97</v>
+        <v>21.06</v>
       </c>
       <c r="C4" t="n">
         <v>20.99</v>
       </c>
       <c r="D4" t="n">
-        <v>21.15</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="5">
@@ -8383,13 +10194,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>21.45</v>
+        <v>21.44</v>
       </c>
       <c r="C5" t="n">
-        <v>21.4</v>
+        <v>21.51</v>
       </c>
       <c r="D5" t="n">
-        <v>21.44</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="6">
@@ -8397,13 +10208,13 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>21.33</v>
+        <v>21.52</v>
       </c>
       <c r="C6" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="D6" t="n">
         <v>21.34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.39</v>
       </c>
     </row>
   </sheetData>
@@ -8418,7 +10229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8434,37 +10245,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Channel</t>
+          <t>ch0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>EUTRA_-1</t>
+          <t>ch1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>EUTRA_+1</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>UTRA_-1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>UTRA_+1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>UTRA_-2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>UTRA_+2</t>
+          <t>ch2</t>
         </is>
       </c>
     </row>
@@ -8472,420 +10263,70 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ch01</t>
-        </is>
+      <c r="B2" t="n">
+        <v>18.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.98</v>
+        <v>18.38</v>
       </c>
       <c r="D2" t="n">
-        <v>-55.34</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-50.55</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-54.46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ch02</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19.56</v>
       </c>
       <c r="C3" t="n">
-        <v>-47.79</v>
+        <v>19.54</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-50.55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-54.96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ch03</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.09</v>
       </c>
       <c r="C4" t="n">
-        <v>-43.26</v>
+        <v>19.09</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.78</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-48.97</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-55.15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ch01</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.48</v>
       </c>
       <c r="C5" t="n">
-        <v>-44.55</v>
+        <v>19.46</v>
       </c>
       <c r="D5" t="n">
-        <v>-55.32</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-48.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-54.84</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ch02</t>
-        </is>
+        <v>66</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.27</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.48</v>
+        <v>18.36</v>
       </c>
       <c r="D6" t="n">
-        <v>-55.29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-51.52</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-54.66</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ch03</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-46.63</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-56.27</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-50.04</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-55.87</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ch01</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-47.46</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-55.43</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-51.19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-54.63</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ch02</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-45.54</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-55.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-50.47</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-54.82</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ch03</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-44.81</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-54.72</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-50.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-54.21</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>25</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ch01</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-45.94</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-55.52</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-49.55</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-54.56</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>25</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ch02</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-48.63</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-55.96</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-51.33</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-55.21</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>25</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ch03</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-44.27</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-56.78</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-47.32</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-56.59</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>66</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ch01</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-45.21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-55.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-49.37</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-54.72</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>66</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ch02</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-43.11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-55.13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-49.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-54.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>66</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ch03</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-42.29</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-55.35</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-47.98</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-54.95</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+        <v>18.25</v>
       </c>
     </row>
   </sheetData>
@@ -8960,16 +10401,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-48.04</v>
+        <v>-48.88</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.62</v>
+        <v>-55.44</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.73</v>
+        <v>-51.52</v>
       </c>
       <c r="F2" t="n">
-        <v>-48.19</v>
+        <v>-54.95</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -8988,16 +10429,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-47.35</v>
+        <v>-47.79</v>
       </c>
       <c r="D3" t="n">
-        <v>-46.61</v>
+        <v>-55.9</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.01</v>
+        <v>-50.65</v>
       </c>
       <c r="F3" t="n">
-        <v>-47.77</v>
+        <v>-55.25</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -9016,16 +10457,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-40.62</v>
+        <v>-45.51</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.03</v>
+        <v>-55.94</v>
       </c>
       <c r="E4" t="n">
-        <v>-42.4</v>
+        <v>-49.99</v>
       </c>
       <c r="F4" t="n">
-        <v>-41.62</v>
+        <v>-55.72</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -9044,16 +10485,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.17</v>
+        <v>-45.88</v>
       </c>
       <c r="D5" t="n">
-        <v>-45.63</v>
+        <v>-55.17</v>
       </c>
       <c r="E5" t="n">
-        <v>-46.94</v>
+        <v>-49.3</v>
       </c>
       <c r="F5" t="n">
-        <v>-46.18</v>
+        <v>-54.68</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9072,16 +10513,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-47.59</v>
+        <v>-46.58</v>
       </c>
       <c r="D6" t="n">
-        <v>-46.97</v>
+        <v>-55.41</v>
       </c>
       <c r="E6" t="n">
-        <v>-48.55</v>
+        <v>-49.89</v>
       </c>
       <c r="F6" t="n">
-        <v>-48.12</v>
+        <v>-54.74</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -9100,16 +10541,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-48.36</v>
+        <v>-45.42</v>
       </c>
       <c r="D7" t="n">
-        <v>-47</v>
+        <v>-56.05</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.99</v>
+        <v>-49.05</v>
       </c>
       <c r="F7" t="n">
-        <v>-48.18</v>
+        <v>-55.8</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9128,16 +10569,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.47</v>
+        <v>-47.05</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.63</v>
+        <v>-55.21</v>
       </c>
       <c r="E8" t="n">
-        <v>-46.75</v>
+        <v>-50.6</v>
       </c>
       <c r="F8" t="n">
-        <v>-46.7</v>
+        <v>-54.56</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9156,16 +10597,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.16</v>
+        <v>-43.63</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.18</v>
+        <v>-55.07</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.73</v>
+        <v>-48.97</v>
       </c>
       <c r="F9" t="n">
-        <v>-45.12</v>
+        <v>-54.31</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9184,16 +10625,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.87</v>
+        <v>-44.75</v>
       </c>
       <c r="D10" t="n">
-        <v>-41.1</v>
+        <v>-54.97</v>
       </c>
       <c r="E10" t="n">
-        <v>-41.49</v>
+        <v>-50.09</v>
       </c>
       <c r="F10" t="n">
-        <v>-42.84</v>
+        <v>-54.39</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9212,16 +10653,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-47.34</v>
+        <v>-48.4</v>
       </c>
       <c r="D11" t="n">
-        <v>-47.51</v>
+        <v>-55.49</v>
       </c>
       <c r="E11" t="n">
-        <v>-48.47</v>
+        <v>-50.68</v>
       </c>
       <c r="F11" t="n">
-        <v>-47.94</v>
+        <v>-54.96</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9240,16 +10681,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-48.26</v>
+        <v>-49.3</v>
       </c>
       <c r="D12" t="n">
-        <v>-48.67</v>
+        <v>-56.28</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.31</v>
+        <v>-51.47</v>
       </c>
       <c r="F12" t="n">
-        <v>-50.05</v>
+        <v>-55.51</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -9268,16 +10709,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-44.13</v>
+        <v>-43.73</v>
       </c>
       <c r="D13" t="n">
-        <v>-49.57</v>
+        <v>-57.12</v>
       </c>
       <c r="E13" t="n">
-        <v>-44.73</v>
+        <v>-47.15</v>
       </c>
       <c r="F13" t="n">
-        <v>-50.48</v>
+        <v>-57.07</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -9296,16 +10737,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-45.83</v>
+        <v>-47.46</v>
       </c>
       <c r="D14" t="n">
-        <v>-45.65</v>
+        <v>-55.44</v>
       </c>
       <c r="E14" t="n">
-        <v>-46.92</v>
+        <v>-50.82</v>
       </c>
       <c r="F14" t="n">
-        <v>-46.92</v>
+        <v>-54.82</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -9324,16 +10765,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.24</v>
+        <v>-45.06</v>
       </c>
       <c r="D15" t="n">
-        <v>-41.63</v>
+        <v>-55.08</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.85</v>
+        <v>-50.54</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.25</v>
+        <v>-54.44</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -9352,16 +10793,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.21</v>
+        <v>-41.52</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.25</v>
+        <v>-55.09</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.76</v>
+        <v>-47.7</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.86</v>
+        <v>-54.86</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>

--- a/results_3MHZ_LTE.xlsx
+++ b/results_3MHZ_LTE.xlsx
@@ -189,12 +189,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$6</f>
+              <f>'PWR_Q_1'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$B$2:$B$6</f>
+              <f>'PWR_Q_1'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -221,12 +221,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$6</f>
+              <f>'PWR_Q_1'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$C$2:$C$6</f>
+              <f>'PWR_Q_1'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -254,12 +254,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$6</f>
+              <f>'PWR_Q_1'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$D$2:$D$6</f>
+              <f>'PWR_Q_1'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -374,12 +374,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$C$2:$C$16</f>
+              <f>'ACLR_Q_F'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -407,12 +407,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$D$2:$D$16</f>
+              <f>'ACLR_Q_F'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -439,12 +439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$E$2:$E$16</f>
+              <f>'ACLR_Q_F'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -471,12 +471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$F$2:$F$16</f>
+              <f>'ACLR_Q_F'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -503,12 +503,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$G$2:$G$16</f>
+              <f>'ACLR_Q_F'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$16</f>
+              <f>'ACLR_Q_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$H$2:$H$16</f>
+              <f>'ACLR_Q_F'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -657,12 +657,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$C$2:$C$16</f>
+              <f>'ACLR_16_P'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -690,12 +690,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$D$2:$D$16</f>
+              <f>'ACLR_16_P'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -722,12 +722,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$E$2:$E$16</f>
+              <f>'ACLR_16_P'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -754,12 +754,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$F$2:$F$16</f>
+              <f>'ACLR_16_P'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -786,12 +786,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$G$2:$G$16</f>
+              <f>'ACLR_16_P'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -818,12 +818,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$16</f>
+              <f>'ACLR_16_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$H$2:$H$16</f>
+              <f>'ACLR_16_P'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -940,12 +940,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$C$2:$C$16</f>
+              <f>'ACLR_16_F'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -973,12 +973,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$D$2:$D$16</f>
+              <f>'ACLR_16_F'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -1005,12 +1005,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$E$2:$E$16</f>
+              <f>'ACLR_16_F'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -1037,12 +1037,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$F$2:$F$16</f>
+              <f>'ACLR_16_F'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -1069,12 +1069,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$G$2:$G$16</f>
+              <f>'ACLR_16_F'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -1101,12 +1101,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$16</f>
+              <f>'ACLR_16_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$H$2:$H$16</f>
+              <f>'ACLR_16_F'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -1223,12 +1223,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$C$2:$C$16</f>
+              <f>'ACLR_64_P'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -1256,12 +1256,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$D$2:$D$16</f>
+              <f>'ACLR_64_P'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -1288,12 +1288,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$E$2:$E$16</f>
+              <f>'ACLR_64_P'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -1320,12 +1320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$F$2:$F$16</f>
+              <f>'ACLR_64_P'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -1352,12 +1352,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$G$2:$G$16</f>
+              <f>'ACLR_64_P'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -1384,12 +1384,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$16</f>
+              <f>'ACLR_64_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$H$2:$H$16</f>
+              <f>'ACLR_64_P'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -1506,12 +1506,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$C$2:$C$16</f>
+              <f>'ACLR_64_F'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -1539,12 +1539,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$D$2:$D$16</f>
+              <f>'ACLR_64_F'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -1571,12 +1571,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$E$2:$E$16</f>
+              <f>'ACLR_64_F'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -1603,12 +1603,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$F$2:$F$16</f>
+              <f>'ACLR_64_F'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -1635,12 +1635,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$G$2:$G$16</f>
+              <f>'ACLR_64_F'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -1667,12 +1667,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$16</f>
+              <f>'ACLR_64_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$H$2:$H$16</f>
+              <f>'ACLR_64_F'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -1789,12 +1789,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$16</f>
+              <f>'ACLR_256_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$C$2:$C$16</f>
+              <f>'ACLR_256_F'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -1822,12 +1822,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$16</f>
+              <f>'ACLR_256_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$D$2:$D$16</f>
+              <f>'ACLR_256_F'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -1854,12 +1854,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$16</f>
+              <f>'ACLR_256_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$E$2:$E$16</f>
+              <f>'ACLR_256_F'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -1886,12 +1886,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$16</f>
+              <f>'ACLR_256_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$F$2:$F$16</f>
+              <f>'ACLR_256_F'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -1918,12 +1918,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$16</f>
+              <f>'ACLR_256_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$G$2:$G$16</f>
+              <f>'ACLR_256_F'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -1950,12 +1950,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$16</f>
+              <f>'ACLR_256_F'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$H$2:$H$16</f>
+              <f>'ACLR_256_F'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -2071,12 +2071,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
+              <f>'EVM_Q_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$B$2:$B$6</f>
+              <f>'EVM_Q_P'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -2103,12 +2103,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
+              <f>'EVM_Q_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$C$2:$C$6</f>
+              <f>'EVM_Q_P'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -2136,12 +2136,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$6</f>
+              <f>'EVM_Q_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$D$2:$D$6</f>
+              <f>'EVM_Q_P'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -2255,12 +2255,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
+              <f>'EVM_Q_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$B$2:$B$6</f>
+              <f>'EVM_Q_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -2287,12 +2287,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
+              <f>'EVM_Q_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$C$2:$C$6</f>
+              <f>'EVM_Q_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -2320,12 +2320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$6</f>
+              <f>'EVM_Q_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$D$2:$D$6</f>
+              <f>'EVM_Q_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -2439,12 +2439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
+              <f>'EVM_16_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$B$2:$B$6</f>
+              <f>'EVM_16_P'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -2471,12 +2471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
+              <f>'EVM_16_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$C$2:$C$6</f>
+              <f>'EVM_16_P'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -2504,12 +2504,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$6</f>
+              <f>'EVM_16_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$D$2:$D$6</f>
+              <f>'EVM_16_P'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -2623,12 +2623,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
+              <f>'EVM_16_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$B$2:$B$6</f>
+              <f>'EVM_16_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -2655,12 +2655,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
+              <f>'EVM_16_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$C$2:$C$6</f>
+              <f>'EVM_16_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -2688,12 +2688,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$6</f>
+              <f>'EVM_16_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$D$2:$D$6</f>
+              <f>'EVM_16_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -2807,12 +2807,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$6</f>
+              <f>'PWR_Q_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$B$2:$B$6</f>
+              <f>'PWR_Q_P'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -2839,12 +2839,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$6</f>
+              <f>'PWR_Q_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$C$2:$C$6</f>
+              <f>'PWR_Q_P'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -2872,12 +2872,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$6</f>
+              <f>'PWR_Q_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$D$2:$D$6</f>
+              <f>'PWR_Q_P'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -2991,12 +2991,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
+              <f>'EVM_64_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$B$2:$B$6</f>
+              <f>'EVM_64_P'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3023,12 +3023,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
+              <f>'EVM_64_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$C$2:$C$6</f>
+              <f>'EVM_64_P'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -3056,12 +3056,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$6</f>
+              <f>'EVM_64_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$D$2:$D$6</f>
+              <f>'EVM_64_P'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -3175,12 +3175,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
+              <f>'EVM_64_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$B$2:$B$6</f>
+              <f>'EVM_64_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3207,12 +3207,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
+              <f>'EVM_64_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$C$2:$C$6</f>
+              <f>'EVM_64_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -3240,12 +3240,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$6</f>
+              <f>'EVM_64_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$D$2:$D$6</f>
+              <f>'EVM_64_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -3359,12 +3359,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$6</f>
+              <f>'EVM_256_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$B$2:$B$6</f>
+              <f>'EVM_256_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3391,12 +3391,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$6</f>
+              <f>'EVM_256_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$C$2:$C$6</f>
+              <f>'EVM_256_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -3424,12 +3424,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$6</f>
+              <f>'EVM_256_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$D$2:$D$6</f>
+              <f>'EVM_256_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -3543,12 +3543,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$6</f>
+              <f>'PWR_Q_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$B$2:$B$6</f>
+              <f>'PWR_Q_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3575,12 +3575,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$6</f>
+              <f>'PWR_Q_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$C$2:$C$6</f>
+              <f>'PWR_Q_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -3608,12 +3608,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$6</f>
+              <f>'PWR_Q_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$D$2:$D$6</f>
+              <f>'PWR_Q_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -3727,12 +3727,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$6</f>
+              <f>'PWR_16_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$B$2:$B$6</f>
+              <f>'PWR_16_P'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3759,12 +3759,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$6</f>
+              <f>'PWR_16_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$C$2:$C$6</f>
+              <f>'PWR_16_P'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -3792,12 +3792,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$6</f>
+              <f>'PWR_16_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$D$2:$D$6</f>
+              <f>'PWR_16_P'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -3911,12 +3911,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$6</f>
+              <f>'PWR_16_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$B$2:$B$6</f>
+              <f>'PWR_16_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -3943,12 +3943,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$6</f>
+              <f>'PWR_16_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$C$2:$C$6</f>
+              <f>'PWR_16_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -3976,12 +3976,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$6</f>
+              <f>'PWR_16_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$D$2:$D$6</f>
+              <f>'PWR_16_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -4095,12 +4095,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$6</f>
+              <f>'PWR_64_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$B$2:$B$6</f>
+              <f>'PWR_64_P'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -4127,12 +4127,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$6</f>
+              <f>'PWR_64_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$C$2:$C$6</f>
+              <f>'PWR_64_P'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -4160,12 +4160,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$6</f>
+              <f>'PWR_64_P'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$D$2:$D$6</f>
+              <f>'PWR_64_P'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -4279,12 +4279,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$6</f>
+              <f>'PWR_64_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$B$2:$B$6</f>
+              <f>'PWR_64_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -4311,12 +4311,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$6</f>
+              <f>'PWR_64_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$C$2:$C$6</f>
+              <f>'PWR_64_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -4344,12 +4344,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$6</f>
+              <f>'PWR_64_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$D$2:$D$6</f>
+              <f>'PWR_64_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -4463,12 +4463,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$6</f>
+              <f>'PWR_256_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$B$2:$B$6</f>
+              <f>'PWR_256_F'!$B$2:$B$10</f>
             </numRef>
           </val>
         </ser>
@@ -4495,12 +4495,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$6</f>
+              <f>'PWR_256_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$C$2:$C$6</f>
+              <f>'PWR_256_F'!$C$2:$C$10</f>
             </numRef>
           </val>
         </ser>
@@ -4528,12 +4528,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$6</f>
+              <f>'PWR_256_F'!$A$2:$A$10</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$D$2:$D$6</f>
+              <f>'PWR_256_F'!$D$2:$D$10</f>
             </numRef>
           </val>
         </ser>
@@ -4648,12 +4648,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$C$2:$C$16</f>
+              <f>'ACLR_Q_P'!$C$2:$C$28</f>
             </numRef>
           </val>
         </ser>
@@ -4681,12 +4681,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$D$2:$D$16</f>
+              <f>'ACLR_Q_P'!$D$2:$D$28</f>
             </numRef>
           </val>
         </ser>
@@ -4713,12 +4713,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$E$2:$E$16</f>
+              <f>'ACLR_Q_P'!$E$2:$E$28</f>
             </numRef>
           </val>
         </ser>
@@ -4745,12 +4745,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$F$2:$F$16</f>
+              <f>'ACLR_Q_P'!$F$2:$F$28</f>
             </numRef>
           </val>
         </ser>
@@ -4777,12 +4777,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$G$2:$G$16</f>
+              <f>'ACLR_Q_P'!$G$2:$G$28</f>
             </numRef>
           </val>
         </ser>
@@ -4809,12 +4809,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$16</f>
+              <f>'ACLR_Q_P'!$A$2:$B$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$H$2:$H$16</f>
+              <f>'ACLR_Q_P'!$H$2:$H$28</f>
             </numRef>
           </val>
         </ser>
@@ -5769,7 +5769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5804,13 +5804,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.58</v>
+        <v>24.52</v>
       </c>
       <c r="C2" t="n">
-        <v>24.43</v>
+        <v>24.53</v>
       </c>
       <c r="D2" t="n">
-        <v>24.49</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="3">
@@ -5818,13 +5818,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.44</v>
+        <v>24.45</v>
       </c>
       <c r="C3" t="n">
-        <v>23.9</v>
+        <v>24.57</v>
       </c>
       <c r="D3" t="n">
-        <v>24.53</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="4">
@@ -5832,13 +5832,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.17</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>23.99</v>
+        <v>23.96</v>
       </c>
       <c r="D4" t="n">
-        <v>24.05</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="5">
@@ -5846,13 +5846,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.53</v>
+        <v>24.52</v>
       </c>
       <c r="C5" t="n">
-        <v>24.4</v>
+        <v>24.61</v>
       </c>
       <c r="D5" t="n">
-        <v>24.31</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="6">
@@ -5863,10 +5863,66 @@
         <v>24.31</v>
       </c>
       <c r="C6" t="n">
-        <v>23.74</v>
+        <v>24.24</v>
       </c>
       <c r="D6" t="n">
-        <v>24.29</v>
+        <v>24.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-49.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24.33</v>
       </c>
     </row>
   </sheetData>
@@ -5881,7 +5937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5941,16 +5997,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-48.42</v>
+        <v>-47.57</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.96</v>
+        <v>-47.08</v>
       </c>
       <c r="E2" t="n">
-        <v>-49.71</v>
+        <v>-48.13</v>
       </c>
       <c r="F2" t="n">
-        <v>-48.93</v>
+        <v>-47.72</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5969,16 +6025,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-49</v>
+        <v>-47.6</v>
       </c>
       <c r="D3" t="n">
-        <v>-47.84</v>
+        <v>-46.88</v>
       </c>
       <c r="E3" t="n">
-        <v>-50.04</v>
+        <v>-48.66</v>
       </c>
       <c r="F3" t="n">
-        <v>-49.36</v>
+        <v>-48.09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5997,16 +6053,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-41.24</v>
+        <v>-41.01</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.51</v>
+        <v>-40.2</v>
       </c>
       <c r="E4" t="n">
-        <v>-42.89</v>
+        <v>-42.59</v>
       </c>
       <c r="F4" t="n">
-        <v>-42.23</v>
+        <v>-41.69</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6025,16 +6081,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.55</v>
+        <v>-46.04</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.54</v>
+        <v>-44.82</v>
       </c>
       <c r="E5" t="n">
-        <v>-46.47</v>
+        <v>-47.06</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.12</v>
+        <v>-45.81</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6053,16 +6109,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-47.2</v>
+        <v>-46.86</v>
       </c>
       <c r="D6" t="n">
-        <v>-46.82</v>
+        <v>-46.46</v>
       </c>
       <c r="E6" t="n">
-        <v>-48.66</v>
+        <v>-48.65</v>
       </c>
       <c r="F6" t="n">
-        <v>-48.08</v>
+        <v>-48.12</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6081,16 +6137,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-48.16</v>
+        <v>-48.87</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.96</v>
+        <v>-46.16</v>
       </c>
       <c r="E7" t="n">
-        <v>-49.13</v>
+        <v>-50.29</v>
       </c>
       <c r="F7" t="n">
-        <v>-46.97</v>
+        <v>-47.37</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6109,16 +6165,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44.77</v>
+        <v>-44.22</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.31</v>
+        <v>-45.22</v>
       </c>
       <c r="E8" t="n">
-        <v>-46.08</v>
+        <v>-45.53</v>
       </c>
       <c r="F8" t="n">
-        <v>-46.47</v>
+        <v>-46.4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6137,16 +6193,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.14</v>
+        <v>-44.62</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.58</v>
+        <v>-44.56</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.95</v>
+        <v>-46.35</v>
       </c>
       <c r="F9" t="n">
-        <v>-45.47</v>
+        <v>-46.21</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6165,16 +6221,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-40.33</v>
+        <v>-40.07</v>
       </c>
       <c r="D10" t="n">
-        <v>-41.26</v>
+        <v>-41.2</v>
       </c>
       <c r="E10" t="n">
-        <v>-42.17</v>
+        <v>-41.62</v>
       </c>
       <c r="F10" t="n">
-        <v>-42.99</v>
+        <v>-42.96</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6193,16 +6249,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-46.57</v>
+        <v>-46.47</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.71</v>
+        <v>-46.3</v>
       </c>
       <c r="E11" t="n">
-        <v>-47.31</v>
+        <v>-47.32</v>
       </c>
       <c r="F11" t="n">
-        <v>-46.75</v>
+        <v>-47.09</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6221,16 +6277,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-47.64</v>
+        <v>-48.44</v>
       </c>
       <c r="D12" t="n">
-        <v>-48.6</v>
+        <v>-49.61</v>
       </c>
       <c r="E12" t="n">
-        <v>-48.87</v>
+        <v>-49.36</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.96</v>
+        <v>-50.63</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6249,16 +6305,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-43.67</v>
+        <v>-44.44</v>
       </c>
       <c r="D13" t="n">
-        <v>-48.18</v>
+        <v>-49.49</v>
       </c>
       <c r="E13" t="n">
-        <v>-44.14</v>
+        <v>-44.84</v>
       </c>
       <c r="F13" t="n">
-        <v>-49.43</v>
+        <v>-50.27</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6277,16 +6333,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-44.13</v>
+        <v>-43.11</v>
       </c>
       <c r="D14" t="n">
-        <v>-45</v>
+        <v>-43.8</v>
       </c>
       <c r="E14" t="n">
-        <v>-45.41</v>
+        <v>-44.24</v>
       </c>
       <c r="F14" t="n">
-        <v>-46.04</v>
+        <v>-44.88</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6305,16 +6361,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.72</v>
+        <v>-41.28</v>
       </c>
       <c r="D15" t="n">
-        <v>-41.31</v>
+        <v>-42.14</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.26</v>
+        <v>-43.04</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.04</v>
+        <v>-43.87</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6333,21 +6389,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-40.01</v>
+        <v>-39.94</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.23</v>
+        <v>-38.7</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.66</v>
+        <v>-41.65</v>
       </c>
       <c r="F16" t="n">
-        <v>-40.01</v>
+        <v>-40.36</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-46.55</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-47.24</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-47.29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-48.28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-46.78</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-46.12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-47.26</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-46.56</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-46.16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-45.79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-47.09</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-47.42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-42.45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-41.44</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-43.81</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-43.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-44.54</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-45.36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-45.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-46.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-44.51</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-47.06</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-45.37</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-48.69</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-43.32</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-42.76</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-44.42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-43.45</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-46.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-47.11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-47.41</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-41.98</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-39.28</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-40.71</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-46.89</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-49.18</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-48.48</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-51.08</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.65</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-43.58</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-45.14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-45.08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-46.51</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-45.61</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-47.58</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-47.08</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6363,7 +6755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6423,16 +6815,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.67</v>
+        <v>-45.05</v>
       </c>
       <c r="D2" t="n">
-        <v>-55.06</v>
+        <v>-54.53</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.65</v>
+        <v>-48.55</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.54</v>
+        <v>-54.07</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6451,16 +6843,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.95</v>
+        <v>-47.57</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.2</v>
+        <v>-55.28</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.57</v>
+        <v>-50.34</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.58</v>
+        <v>-54.56</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6479,16 +6871,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-42.62</v>
+        <v>-42.03</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.51</v>
+        <v>-55.23</v>
       </c>
       <c r="E4" t="n">
-        <v>-48.44</v>
+        <v>-48.18</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.15</v>
+        <v>-54.94</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6507,16 +6899,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.31</v>
+        <v>-45.44</v>
       </c>
       <c r="D5" t="n">
-        <v>-54.81</v>
+        <v>-54.56</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.1</v>
+        <v>-49.92</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.24</v>
+        <v>-54.08</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6535,16 +6927,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.5</v>
+        <v>-45.75</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.82</v>
+        <v>-54.46</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.99</v>
+        <v>-49.93</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.2</v>
+        <v>-54.06</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6563,16 +6955,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.81</v>
+        <v>-45.63</v>
       </c>
       <c r="D7" t="n">
         <v>-55.77</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.59</v>
+        <v>-49.14</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.33</v>
+        <v>-55.45</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6591,16 +6983,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-46.03</v>
+        <v>-46.06</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.6</v>
+        <v>-54.42</v>
       </c>
       <c r="E8" t="n">
-        <v>-50.29</v>
+        <v>-50.19</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.83</v>
+        <v>-53.99</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6619,16 +7011,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-46.34</v>
+        <v>-44.57</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.66</v>
+        <v>-54.42</v>
       </c>
       <c r="E9" t="n">
-        <v>-49.97</v>
+        <v>-49.31</v>
       </c>
       <c r="F9" t="n">
-        <v>-53.74</v>
+        <v>-53.68</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6647,16 +7039,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-42.46</v>
+        <v>-43.63</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.29</v>
+        <v>-54.22</v>
       </c>
       <c r="E10" t="n">
-        <v>-48.54</v>
+        <v>-49.46</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.47</v>
+        <v>-53.39</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6675,16 +7067,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-43.41</v>
+        <v>-46.45</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.98</v>
+        <v>-54.93</v>
       </c>
       <c r="E11" t="n">
-        <v>-48.65</v>
+        <v>-49.84</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.47</v>
+        <v>-54.23</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6703,16 +7095,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.81</v>
+        <v>-48.93</v>
       </c>
       <c r="D12" t="n">
         <v>-55.62</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.91</v>
+        <v>-51.08</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.91</v>
+        <v>-55.15</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6731,16 +7123,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.49</v>
+        <v>-45.23</v>
       </c>
       <c r="D13" t="n">
-        <v>-57.26</v>
+        <v>-56.51</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.75</v>
+        <v>-48.02</v>
       </c>
       <c r="F13" t="n">
-        <v>-56.96</v>
+        <v>-56.49</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6759,16 +7151,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-45.81</v>
+        <v>-46.76</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.91</v>
+        <v>-54.85</v>
       </c>
       <c r="E14" t="n">
-        <v>-50.28</v>
+        <v>-50.73</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.18</v>
+        <v>-54.2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6787,16 +7179,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-42.47</v>
+        <v>-43.37</v>
       </c>
       <c r="D15" t="n">
         <v>-54.54</v>
       </c>
       <c r="E15" t="n">
-        <v>-48.95</v>
+        <v>-49.47</v>
       </c>
       <c r="F15" t="n">
-        <v>-53.72</v>
+        <v>-53.93</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -6815,21 +7207,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-40.17</v>
+        <v>-40.94</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.83</v>
+        <v>-54.65</v>
       </c>
       <c r="E16" t="n">
-        <v>-47.05</v>
+        <v>-47.64</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.49</v>
+        <v>-54.39</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-46.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-58.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-49.72</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-57.52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-42.61</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-57.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-48.42</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-56.96</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-46.31</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-59.43</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-50.24</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-59.14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-38.76</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-55.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-44.31</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-55.88</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-42.76</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-55.83</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-46.95</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-55.43</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-43.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-56.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-47.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-57.26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-42.33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-56.71</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-46.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-56.17</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-46.12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-57.44</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-48.85</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-56.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-39.14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-57.55</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-44.52</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-57.42</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-45.85</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-57.29</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-50.96</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-56.64</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-45.32</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-57.07</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-49.82</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-56.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-41.51</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-57.36</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-56.97</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6845,7 +7573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6905,16 +7633,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.3</v>
+        <v>-45.79</v>
       </c>
       <c r="D2" t="n">
-        <v>-45.38</v>
+        <v>-45.28</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.12</v>
+        <v>-46.8</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.71</v>
+        <v>-46.18</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -6933,16 +7661,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.39</v>
+        <v>-46.77</v>
       </c>
       <c r="D3" t="n">
-        <v>-45.56</v>
+        <v>-47.03</v>
       </c>
       <c r="E3" t="n">
-        <v>-46.31</v>
+        <v>-48.15</v>
       </c>
       <c r="F3" t="n">
-        <v>-46.8</v>
+        <v>-48.12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -6961,16 +7689,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-37.9</v>
+        <v>-38.04</v>
       </c>
       <c r="D4" t="n">
-        <v>-37.86</v>
+        <v>-37.92</v>
       </c>
       <c r="E4" t="n">
-        <v>-39.57</v>
+        <v>-39.49</v>
       </c>
       <c r="F4" t="n">
-        <v>-39.51</v>
+        <v>-39.74</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6989,16 +7717,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.42</v>
+        <v>-42.77</v>
       </c>
       <c r="D5" t="n">
-        <v>-42.7</v>
+        <v>-42.39</v>
       </c>
       <c r="E5" t="n">
-        <v>-44.37</v>
+        <v>-43.79</v>
       </c>
       <c r="F5" t="n">
-        <v>-43.4</v>
+        <v>-42.99</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7017,16 +7745,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.54</v>
+        <v>-41.81</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.34</v>
+        <v>-41.7</v>
       </c>
       <c r="E6" t="n">
-        <v>-43.83</v>
+        <v>-42.96</v>
       </c>
       <c r="F6" t="n">
-        <v>-43.51</v>
+        <v>-43.01</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7045,16 +7773,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.54</v>
+        <v>-44.34</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.04</v>
+        <v>-45.53</v>
       </c>
       <c r="E7" t="n">
-        <v>-44.25</v>
+        <v>-44.85</v>
       </c>
       <c r="F7" t="n">
-        <v>-45.95</v>
+        <v>-46.16</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7073,16 +7801,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-42.21</v>
+        <v>-42.38</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.05</v>
+        <v>-43.46</v>
       </c>
       <c r="E8" t="n">
-        <v>-43.12</v>
+        <v>-43.41</v>
       </c>
       <c r="F8" t="n">
-        <v>-43.94</v>
+        <v>-44.38</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7101,16 +7829,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.18</v>
+        <v>-43.2</v>
       </c>
       <c r="D9" t="n">
-        <v>-41.83</v>
+        <v>-44.01</v>
       </c>
       <c r="E9" t="n">
-        <v>-43.82</v>
+        <v>-45</v>
       </c>
       <c r="F9" t="n">
-        <v>-43.44</v>
+        <v>-45.64</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7129,16 +7857,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-38.13</v>
+        <v>-39.91</v>
       </c>
       <c r="D10" t="n">
-        <v>-38.59</v>
+        <v>-40.84</v>
       </c>
       <c r="E10" t="n">
-        <v>-39.73</v>
+        <v>-41.51</v>
       </c>
       <c r="F10" t="n">
-        <v>-40.32</v>
+        <v>-42.39</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7157,16 +7885,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-42.52</v>
+        <v>-42.79</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.3</v>
+        <v>-42.91</v>
       </c>
       <c r="E11" t="n">
-        <v>-43.8</v>
+        <v>-44.18</v>
       </c>
       <c r="F11" t="n">
-        <v>-43.41</v>
+        <v>-44.15</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7185,16 +7913,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-41.92</v>
+        <v>-41.58</v>
       </c>
       <c r="D12" t="n">
-        <v>-42.37</v>
+        <v>-42.12</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.09</v>
+        <v>-42.73</v>
       </c>
       <c r="F12" t="n">
-        <v>-43.74</v>
+        <v>-43.48</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7213,16 +7941,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.05</v>
+        <v>-39.66</v>
       </c>
       <c r="D13" t="n">
-        <v>-44.15</v>
+        <v>-42.4</v>
       </c>
       <c r="E13" t="n">
-        <v>-41.29</v>
+        <v>-40.03</v>
       </c>
       <c r="F13" t="n">
-        <v>-44.53</v>
+        <v>-43.02</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7241,16 +7969,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.39</v>
+        <v>-42.69</v>
       </c>
       <c r="D14" t="n">
-        <v>-43.1</v>
+        <v>-42.92</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.02</v>
+        <v>-44.03</v>
       </c>
       <c r="F14" t="n">
-        <v>-44.5</v>
+        <v>-44.17</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7269,16 +7997,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.07</v>
+        <v>-40.72</v>
       </c>
       <c r="D15" t="n">
-        <v>-41.52</v>
+        <v>-41.32</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.65</v>
+        <v>-42.37</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.28</v>
+        <v>-42.93</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7297,21 +8025,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.79</v>
+        <v>-38.68</v>
       </c>
       <c r="D16" t="n">
         <v>-38</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.45</v>
+        <v>-40.39</v>
       </c>
       <c r="F16" t="n">
+        <v>-39.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-43.38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-43.37</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-44.37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-44.66</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-42.07</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-41.39</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-43.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-42.82</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-40.26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-40.17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-41.03</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-41.65</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-38.35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-38.19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-39.46</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-39.55</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-43.96</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-45.47</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-44.28</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-46.32</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-42.84</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-44.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-42.82</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-45.61</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-42.64</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-42.11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-43.54</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-43.17</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-42.84</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-42.97</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-43.43</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-43.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-40.86</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-39.49</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-42.24</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-41.34</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-43.09</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-43.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.83</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-44.36</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-44.26</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-45.12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-40.82</v>
+      </c>
+      <c r="D28" t="n">
         <v>-39.82</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="E28" t="n">
+        <v>-42.53</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-41.71</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7327,7 +8391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,16 +8451,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.32</v>
+        <v>-46.46</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.77</v>
+        <v>-54.95</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.69</v>
+        <v>-50.36</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.66</v>
+        <v>-54.56</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -7415,16 +8479,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-47.38</v>
+        <v>-43.8</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.42</v>
+        <v>-55</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.88</v>
+        <v>-47.64</v>
       </c>
       <c r="F3" t="n">
-        <v>-55.11</v>
+        <v>-54.69</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -7443,16 +8507,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-41.88</v>
+        <v>-41.18</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.84</v>
+        <v>-54.56</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.75</v>
+        <v>-47.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.82</v>
+        <v>-54.53</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7471,16 +8535,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.55</v>
+        <v>-46.03</v>
       </c>
       <c r="D5" t="n">
-        <v>-53.97</v>
+        <v>-53.94</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.55</v>
+        <v>-49.2</v>
       </c>
       <c r="F5" t="n">
-        <v>-53.65</v>
+        <v>-53.42</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7499,16 +8563,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.98</v>
+        <v>-43.4</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.24</v>
+        <v>-54.13</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.48</v>
+        <v>-48.09</v>
       </c>
       <c r="F6" t="n">
-        <v>-53.88</v>
+        <v>-53.92</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7527,16 +8591,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-42.5</v>
+        <v>-43.89</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.32</v>
+        <v>-55.54</v>
       </c>
       <c r="E7" t="n">
-        <v>-47.61</v>
+        <v>-48.62</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.39</v>
+        <v>-55.49</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7555,16 +8619,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.5</v>
+        <v>-43.9</v>
       </c>
       <c r="D8" t="n">
         <v>-54.11</v>
       </c>
       <c r="E8" t="n">
-        <v>-49.41</v>
+        <v>-48.21</v>
       </c>
       <c r="F8" t="n">
-        <v>-53.6</v>
+        <v>-53.67</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -7583,16 +8647,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.65</v>
+        <v>-46.07</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.3</v>
+        <v>-55.26</v>
       </c>
       <c r="E9" t="n">
-        <v>-49.83</v>
+        <v>-50.14</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.7</v>
+        <v>-54.6</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7611,16 +8675,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-43.14</v>
+        <v>-43.94</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.02</v>
+        <v>-54.63</v>
       </c>
       <c r="E10" t="n">
-        <v>-48.46</v>
+        <v>-49.23</v>
       </c>
       <c r="F10" t="n">
-        <v>-53.37</v>
+        <v>-54.26</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7639,16 +8703,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.29</v>
+        <v>-46.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.63</v>
+        <v>-54.66</v>
       </c>
       <c r="E11" t="n">
-        <v>-49.13</v>
+        <v>-49.96</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.21</v>
+        <v>-54.18</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7667,16 +8731,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43</v>
+        <v>-44.37</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.14</v>
+        <v>-55.46</v>
       </c>
       <c r="E12" t="n">
-        <v>-48.01</v>
+        <v>-47.87</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.81</v>
+        <v>-55.32</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7695,16 +8759,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.63</v>
+        <v>-42.56</v>
       </c>
       <c r="D13" t="n">
-        <v>-55.32</v>
+        <v>-56.07</v>
       </c>
       <c r="E13" t="n">
-        <v>-45.2</v>
+        <v>-45.6</v>
       </c>
       <c r="F13" t="n">
-        <v>-56.28</v>
+        <v>-56.46</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7723,16 +8787,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-41.78</v>
+        <v>-41.28</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.34</v>
+        <v>-54.14</v>
       </c>
       <c r="E14" t="n">
-        <v>-47.36</v>
+        <v>-46.91</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.04</v>
+        <v>-53.6</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7751,16 +8815,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-44.52</v>
+        <v>-44.39</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.05</v>
+        <v>-54</v>
       </c>
       <c r="E15" t="n">
-        <v>-49.55</v>
+        <v>-49.67</v>
       </c>
       <c r="F15" t="n">
-        <v>-53.31</v>
+        <v>-53.57</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -7779,21 +8843,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-40.51</v>
+        <v>-39.46</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.63</v>
+        <v>-54.52</v>
       </c>
       <c r="E16" t="n">
-        <v>-46.77</v>
+        <v>-45.98</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.28</v>
+        <v>-54.38</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-43.86</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-57.45</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-48.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-56.88</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-44.14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-57.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-49.21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-56.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-42.76</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-58.06</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-47.49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-58.51</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-36.49</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-55.35</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-42.29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-55.64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-40.68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-56.01</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-45.57</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-55.71</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-41.24</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-57.11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-45.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-57.26</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-45.49</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-57.55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-50.07</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-57.12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-43.86</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-57.48</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-47.54</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-57.29</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-42.17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-58.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-48.41</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-58.58</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-42.24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-57.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-49.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-56.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-46.71</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-57.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-49.88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-57.15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-40.82</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-56.59</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-47.96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-56.32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7809,7 +9209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7869,16 +9269,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.3</v>
+        <v>-46.1</v>
       </c>
       <c r="D2" t="n">
-        <v>-44.7</v>
+        <v>-45.59</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.82</v>
+        <v>-46.74</v>
       </c>
       <c r="F2" t="n">
-        <v>-45.44</v>
+        <v>-46.46</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -7897,16 +9297,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-44.22</v>
+        <v>-45.06</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.1</v>
+        <v>-45.59</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.07</v>
+        <v>-46.22</v>
       </c>
       <c r="F3" t="n">
-        <v>-45.32</v>
+        <v>-46.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -7925,16 +9325,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-38.87</v>
+        <v>-38.39</v>
       </c>
       <c r="D4" t="n">
-        <v>-38.7</v>
+        <v>-38.02</v>
       </c>
       <c r="E4" t="n">
-        <v>-40.73</v>
+        <v>-40.1</v>
       </c>
       <c r="F4" t="n">
-        <v>-40.65</v>
+        <v>-39.87</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7953,16 +9353,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.08</v>
+        <v>-44.71</v>
       </c>
       <c r="D5" t="n">
-        <v>-42.43</v>
+        <v>-43.83</v>
       </c>
       <c r="E5" t="n">
-        <v>-44.11</v>
+        <v>-45.94</v>
       </c>
       <c r="F5" t="n">
-        <v>-43.21</v>
+        <v>-44.48</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7981,16 +9381,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.71</v>
+        <v>-45.76</v>
       </c>
       <c r="D6" t="n">
-        <v>-46.36</v>
+        <v>-44.97</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.98</v>
+        <v>-46.66</v>
       </c>
       <c r="F6" t="n">
-        <v>-47.59</v>
+        <v>-46.04</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8009,16 +9409,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-42.37</v>
+        <v>-45.82</v>
       </c>
       <c r="D7" t="n">
-        <v>-42.44</v>
+        <v>-45.11</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.17</v>
+        <v>-46.46</v>
       </c>
       <c r="F7" t="n">
-        <v>-43.6</v>
+        <v>-46.22</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8037,16 +9437,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-41.95</v>
+        <v>-41.3</v>
       </c>
       <c r="D8" t="n">
-        <v>-41.92</v>
+        <v>-41.37</v>
       </c>
       <c r="E8" t="n">
-        <v>-43.35</v>
+        <v>-42.6</v>
       </c>
       <c r="F8" t="n">
-        <v>-43.29</v>
+        <v>-42.61</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8065,16 +9465,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.93</v>
+        <v>-44.58</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.08</v>
+        <v>-44.82</v>
       </c>
       <c r="E9" t="n">
-        <v>-44.34</v>
+        <v>-45.99</v>
       </c>
       <c r="F9" t="n">
-        <v>-44.48</v>
+        <v>-46.28</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8093,16 +9493,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.35</v>
+        <v>-39.8</v>
       </c>
       <c r="D10" t="n">
-        <v>-40.23</v>
+        <v>-40.82</v>
       </c>
       <c r="E10" t="n">
-        <v>-40.93</v>
+        <v>-41.52</v>
       </c>
       <c r="F10" t="n">
-        <v>-41.98</v>
+        <v>-42.83</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8121,16 +9521,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-45.82</v>
+        <v>-43.44</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.06</v>
+        <v>-43.43</v>
       </c>
       <c r="E11" t="n">
-        <v>-46.95</v>
+        <v>-44.61</v>
       </c>
       <c r="F11" t="n">
-        <v>-46.42</v>
+        <v>-44.43</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8149,16 +9549,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-42.4</v>
+        <v>-44.16</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.24</v>
+        <v>-45.26</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.6</v>
+        <v>-45.25</v>
       </c>
       <c r="F12" t="n">
-        <v>-44.58</v>
+        <v>-46.57</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -8177,16 +9577,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.06</v>
+        <v>-39.66</v>
       </c>
       <c r="D13" t="n">
-        <v>-44.92</v>
+        <v>-42.71</v>
       </c>
       <c r="E13" t="n">
-        <v>-41.43</v>
+        <v>-40.32</v>
       </c>
       <c r="F13" t="n">
-        <v>-45.39</v>
+        <v>-43.43</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -8205,16 +9605,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-41.32</v>
+        <v>-41.91</v>
       </c>
       <c r="D14" t="n">
-        <v>-41.73</v>
+        <v>-42.4</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.57</v>
+        <v>-43.27</v>
       </c>
       <c r="F14" t="n">
-        <v>-42.78</v>
+        <v>-43.55</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -8233,16 +9633,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.03</v>
+        <v>-41.91</v>
       </c>
       <c r="D15" t="n">
-        <v>-41.46</v>
+        <v>-42.21</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.67</v>
+        <v>-43.84</v>
       </c>
       <c r="F15" t="n">
-        <v>-43.32</v>
+        <v>-44.06</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8261,21 +9661,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.1</v>
+        <v>-39.51</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.08</v>
+        <v>-38.09</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.77</v>
+        <v>-41.08</v>
       </c>
       <c r="F16" t="n">
-        <v>-39.99</v>
+        <v>-39.97</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-42.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-43.69</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-44.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-45.08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-44.15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-43.91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-44.99</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-45.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-42.27</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-42.89</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-43.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-44.27</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-37.53</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-38.76</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-38.51</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-41.38</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-42.87</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-41.99</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-43.78</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-40.43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-42.57</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-43.85</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-41.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-41.34</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-42.39</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-42.45</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-46.61</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-46.15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-47.22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-47.08</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-40.37</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-39.52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-41.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-41.17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-42.51</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-43.26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-44.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-45.23</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.88</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-45.14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-45.13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-46.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-43.47</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-42.87</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-44.63</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-44.32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8291,7 +10027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8351,16 +10087,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-41.64</v>
+        <v>-41.68</v>
       </c>
       <c r="D2" t="n">
-        <v>-41.5</v>
+        <v>-40.72</v>
       </c>
       <c r="E2" t="n">
-        <v>-42.88</v>
+        <v>-42.79</v>
       </c>
       <c r="F2" t="n">
-        <v>-42.61</v>
+        <v>-41.94</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -8379,16 +10115,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-41.55</v>
+        <v>-41.53</v>
       </c>
       <c r="D3" t="n">
-        <v>-41.84</v>
+        <v>-41.98</v>
       </c>
       <c r="E3" t="n">
-        <v>-42.78</v>
+        <v>-42.71</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.28</v>
+        <v>-43.02</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -8407,16 +10143,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-40.46</v>
+        <v>-40.24</v>
       </c>
       <c r="D4" t="n">
-        <v>-40.36</v>
+        <v>-39.84</v>
       </c>
       <c r="E4" t="n">
-        <v>-41.89</v>
+        <v>-41.61</v>
       </c>
       <c r="F4" t="n">
-        <v>-41.81</v>
+        <v>-41.34</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -8435,16 +10171,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-39.72</v>
+        <v>-39.5</v>
       </c>
       <c r="D5" t="n">
-        <v>-39.02</v>
+        <v>-39.17</v>
       </c>
       <c r="E5" t="n">
-        <v>-41.19</v>
+        <v>-41.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-40.45</v>
+        <v>-40.47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -8463,16 +10199,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.01</v>
+        <v>-41.65</v>
       </c>
       <c r="D6" t="n">
-        <v>-42</v>
+        <v>-41.67</v>
       </c>
       <c r="E6" t="n">
-        <v>-42.98</v>
+        <v>-42.57</v>
       </c>
       <c r="F6" t="n">
-        <v>-43.02</v>
+        <v>-42.9</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8491,16 +10227,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-42.12</v>
+        <v>-42.39</v>
       </c>
       <c r="D7" t="n">
-        <v>-42.59</v>
+        <v>-43.01</v>
       </c>
       <c r="E7" t="n">
-        <v>-42.85</v>
+        <v>-43.27</v>
       </c>
       <c r="F7" t="n">
-        <v>-43.52</v>
+        <v>-44.09</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8519,16 +10255,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-39.41</v>
+        <v>-39.52</v>
       </c>
       <c r="D8" t="n">
-        <v>-38.92</v>
+        <v>-39.13</v>
       </c>
       <c r="E8" t="n">
-        <v>-41.09</v>
+        <v>-41.17</v>
       </c>
       <c r="F8" t="n">
-        <v>-40.36</v>
+        <v>-40.83</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8547,16 +10283,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-40.99</v>
+        <v>-41.31</v>
       </c>
       <c r="D9" t="n">
-        <v>-41.66</v>
+        <v>-42.04</v>
       </c>
       <c r="E9" t="n">
-        <v>-42.41</v>
+        <v>-42.71</v>
       </c>
       <c r="F9" t="n">
-        <v>-43.16</v>
+        <v>-43.37</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8575,16 +10311,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-39.3</v>
+        <v>-39.08</v>
       </c>
       <c r="D10" t="n">
-        <v>-39.67</v>
+        <v>-39.49</v>
       </c>
       <c r="E10" t="n">
-        <v>-41.03</v>
+        <v>-40.78</v>
       </c>
       <c r="F10" t="n">
-        <v>-41.21</v>
+        <v>-41.17</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8603,16 +10339,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-41.32</v>
+        <v>-41.29</v>
       </c>
       <c r="D11" t="n">
-        <v>-40.94</v>
+        <v>-40.95</v>
       </c>
       <c r="E11" t="n">
-        <v>-42.75</v>
+        <v>-42.51</v>
       </c>
       <c r="F11" t="n">
-        <v>-42.24</v>
+        <v>-42.34</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8631,16 +10367,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-42.21</v>
+        <v>-42.25</v>
       </c>
       <c r="D12" t="n">
-        <v>-42.58</v>
+        <v>-42.4</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.34</v>
+        <v>-43.25</v>
       </c>
       <c r="F12" t="n">
-        <v>-43.74</v>
+        <v>-43.68</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -8659,16 +10395,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-40.51</v>
+        <v>-40.47</v>
       </c>
       <c r="D13" t="n">
-        <v>-43.23</v>
+        <v>-43.21</v>
       </c>
       <c r="E13" t="n">
-        <v>-41.51</v>
+        <v>-41.61</v>
       </c>
       <c r="F13" t="n">
-        <v>-44.46</v>
+        <v>-44.61</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -8687,16 +10423,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-39.51</v>
+        <v>-38.93</v>
       </c>
       <c r="D14" t="n">
-        <v>-38.85</v>
+        <v>-38.71</v>
       </c>
       <c r="E14" t="n">
-        <v>-41.15</v>
+        <v>-40.68</v>
       </c>
       <c r="F14" t="n">
-        <v>-40.47</v>
+        <v>-40.28</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -8715,16 +10451,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.51</v>
+        <v>-39.25</v>
       </c>
       <c r="D15" t="n">
-        <v>-40.13</v>
+        <v>-39.82</v>
       </c>
       <c r="E15" t="n">
-        <v>-41.14</v>
+        <v>-41.05</v>
       </c>
       <c r="F15" t="n">
-        <v>-41.66</v>
+        <v>-41.51</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8743,21 +10479,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.56</v>
+        <v>-39.29</v>
       </c>
       <c r="D16" t="n">
-        <v>-40.82</v>
+        <v>-40.93</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.91</v>
+        <v>-40.68</v>
       </c>
       <c r="F16" t="n">
-        <v>-42.37</v>
+        <v>-42.33</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-42.95</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-44.99</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-44.85</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-43.48</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-42.02</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-45.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-43.91</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-43.09</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-43.07</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-44.84</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-45.19</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-42.49</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-42.99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-44.34</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-44.81</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-43.21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-43.11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-44.58</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-44.53</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-44.14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-44.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-45.85</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-44.51</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-43.49</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-46.18</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-45.33</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-44.11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-43.72</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-46.13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-45.87</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-43.14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-41.53</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-45.02</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-43.61</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-44.83</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-43.05</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-45.26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.77</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-42.99</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-45.47</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-45.08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-43.98</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-42.15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-45.69</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-44.14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8773,7 +10845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8808,13 +10880,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2</v>
+        <v>2.59</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
@@ -8822,13 +10894,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.28</v>
+        <v>2.67</v>
       </c>
       <c r="C3" t="n">
-        <v>3.12</v>
+        <v>2.69</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4">
@@ -8836,13 +10908,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.52</v>
+        <v>3.08</v>
       </c>
       <c r="C4" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="D4" t="n">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="5">
@@ -8850,13 +10922,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6">
@@ -8864,13 +10936,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="C6" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="D6" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>
@@ -8885,7 +11013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,13 +11048,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="3">
@@ -8937,10 +11065,10 @@
         <v>0.77</v>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -8948,13 +11076,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="C4" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
@@ -8962,13 +11090,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C5" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -8976,13 +11104,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="C6" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="D6" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -8997,7 +11181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9032,13 +11216,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="C2" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="D2" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -9046,13 +11230,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.99</v>
+        <v>2.74</v>
       </c>
       <c r="C3" t="n">
-        <v>2.46</v>
+        <v>3.16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4">
@@ -9060,13 +11244,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.58</v>
+        <v>3.41</v>
       </c>
       <c r="C4" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="5">
@@ -9074,13 +11258,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>2.01</v>
+        <v>2.34</v>
       </c>
       <c r="C5" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -9088,13 +11272,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="C6" t="n">
-        <v>3.22</v>
+        <v>2.89</v>
       </c>
       <c r="D6" t="n">
-        <v>3.42</v>
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +11349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9144,13 +11384,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.07</v>
+        <v>0.88</v>
       </c>
       <c r="C2" t="n">
-        <v>0.89</v>
+        <v>1.16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
@@ -9158,13 +11398,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C3" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -9172,13 +11412,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="C4" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="D4" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -9186,13 +11426,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">
@@ -9200,13 +11440,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="C6" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="D6" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -9221,7 +11517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9256,13 +11552,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>24.58</v>
+        <v>24.42</v>
       </c>
       <c r="C2" t="n">
-        <v>24.47</v>
+        <v>24.48</v>
       </c>
       <c r="D2" t="n">
-        <v>24.57</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="3">
@@ -9270,13 +11566,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>24.57</v>
+        <v>24.44</v>
       </c>
       <c r="C3" t="n">
-        <v>24.6</v>
+        <v>24.59</v>
       </c>
       <c r="D3" t="n">
-        <v>24.61</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="4">
@@ -9284,13 +11580,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>24.12</v>
+        <v>24.04</v>
       </c>
       <c r="C4" t="n">
-        <v>23.94</v>
+        <v>24.02</v>
       </c>
       <c r="D4" t="n">
-        <v>24.15</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="5">
@@ -9298,13 +11594,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4</v>
+        <v>24.53</v>
       </c>
       <c r="C5" t="n">
-        <v>24.54</v>
+        <v>24.58</v>
       </c>
       <c r="D5" t="n">
-        <v>24.48</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="6">
@@ -9312,13 +11608,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>24.29</v>
+        <v>24.38</v>
       </c>
       <c r="C6" t="n">
-        <v>24.29</v>
+        <v>24.35</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4</v>
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24.84</v>
       </c>
     </row>
   </sheetData>
@@ -9333,7 +11685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9368,13 +11720,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="C2" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="D2" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3">
@@ -9382,13 +11734,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.74</v>
+        <v>2.78</v>
       </c>
       <c r="C3" t="n">
-        <v>2.25</v>
+        <v>3.07</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4">
@@ -9396,13 +11748,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="C4" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
@@ -9410,13 +11762,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="C5" t="n">
-        <v>2.73</v>
+        <v>2.47</v>
       </c>
       <c r="D5" t="n">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="6">
@@ -9424,13 +11776,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>2.46</v>
+        <v>2.95</v>
       </c>
       <c r="C6" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="D6" t="n">
-        <v>3.32</v>
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +11853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9480,10 +11888,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.89</v>
+        <v>1.27</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D2" t="n">
         <v>1.99</v>
@@ -9494,13 +11902,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -9508,13 +11916,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="C4" t="n">
-        <v>2.15</v>
+        <v>1.19</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -9522,13 +11930,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>1.21</v>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="6">
@@ -9536,13 +11944,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="C6" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="D6" t="n">
-        <v>3.22</v>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>
@@ -9557,7 +12021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9592,13 +12056,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="C2" t="n">
-        <v>4.32</v>
+        <v>1.38</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="3">
@@ -9606,13 +12070,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="C3" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
@@ -9620,13 +12084,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -9637,10 +12101,10 @@
         <v>1.41</v>
       </c>
       <c r="C5" t="n">
-        <v>3.73</v>
+        <v>1.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -9648,13 +12112,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.81</v>
+        <v>2.58</v>
       </c>
       <c r="D6" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>
@@ -9669,7 +12189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9704,13 +12224,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.5</v>
+        <v>23.41</v>
       </c>
       <c r="C2" t="n">
-        <v>23.51</v>
+        <v>23.53</v>
       </c>
       <c r="D2" t="n">
-        <v>23.52</v>
+        <v>23.49</v>
       </c>
     </row>
     <row r="3">
@@ -9718,13 +12238,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.53</v>
+        <v>23.51</v>
       </c>
       <c r="C3" t="n">
-        <v>23.56</v>
+        <v>23.58</v>
       </c>
       <c r="D3" t="n">
-        <v>23.59</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="4">
@@ -9732,13 +12252,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.05</v>
+        <v>23.07</v>
       </c>
       <c r="C4" t="n">
-        <v>23.05</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>23.07</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="5">
@@ -9746,13 +12266,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>23.46</v>
+        <v>23.45</v>
       </c>
       <c r="C5" t="n">
-        <v>23.52</v>
+        <v>23.53</v>
       </c>
       <c r="D5" t="n">
-        <v>23.38</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="6">
@@ -9760,13 +12280,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>23.33</v>
+        <v>23.41</v>
       </c>
       <c r="C6" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="D6" t="n">
         <v>23.39</v>
       </c>
-      <c r="D6" t="n">
-        <v>23.36</v>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.74</v>
       </c>
     </row>
   </sheetData>
@@ -9781,7 +12357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9816,13 +12392,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23.65</v>
+        <v>23.38</v>
       </c>
       <c r="C2" t="n">
-        <v>23.62</v>
+        <v>23.51</v>
       </c>
       <c r="D2" t="n">
-        <v>23.61</v>
+        <v>23.51</v>
       </c>
     </row>
     <row r="3">
@@ -9830,13 +12406,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23.61</v>
+        <v>23.48</v>
       </c>
       <c r="C3" t="n">
-        <v>23.68</v>
+        <v>23.7</v>
       </c>
       <c r="D3" t="n">
-        <v>23.73</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="4">
@@ -9844,13 +12420,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="C4" t="n">
-        <v>22.99</v>
+        <v>22.96</v>
       </c>
       <c r="D4" t="n">
-        <v>23.24</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="5">
@@ -9858,13 +12434,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="C5" t="n">
         <v>23.58</v>
       </c>
-      <c r="C5" t="n">
-        <v>23.6</v>
-      </c>
       <c r="D5" t="n">
-        <v>23.53</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="6">
@@ -9875,10 +12451,66 @@
         <v>23.4</v>
       </c>
       <c r="C6" t="n">
-        <v>23.29</v>
+        <v>23.33</v>
       </c>
       <c r="D6" t="n">
-        <v>23.62</v>
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.93</v>
       </c>
     </row>
   </sheetData>
@@ -9893,7 +12525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9928,13 +12560,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.54</v>
+        <v>21.36</v>
       </c>
       <c r="C2" t="n">
-        <v>21.55</v>
+        <v>21.44</v>
       </c>
       <c r="D2" t="n">
-        <v>21.52</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="3">
@@ -9942,13 +12574,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.43</v>
+        <v>22.44</v>
       </c>
       <c r="C3" t="n">
-        <v>22.44</v>
+        <v>22.61</v>
       </c>
       <c r="D3" t="n">
-        <v>22.55</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="4">
@@ -9956,13 +12588,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>22.12</v>
+        <v>22.06</v>
       </c>
       <c r="C4" t="n">
-        <v>22.11</v>
+        <v>22.01</v>
       </c>
       <c r="D4" t="n">
-        <v>22.07</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -9970,13 +12602,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.43</v>
+        <v>22.38</v>
       </c>
       <c r="C5" t="n">
-        <v>22.43</v>
+        <v>22.42</v>
       </c>
       <c r="D5" t="n">
-        <v>22.35</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="6">
@@ -9984,13 +12616,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>21.37</v>
+        <v>21.4</v>
       </c>
       <c r="C6" t="n">
-        <v>21.35</v>
+        <v>21.42</v>
       </c>
       <c r="D6" t="n">
-        <v>21.35</v>
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.61</v>
       </c>
     </row>
   </sheetData>
@@ -10005,7 +12693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10040,13 +12728,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>22.62</v>
+        <v>22.42</v>
       </c>
       <c r="C2" t="n">
-        <v>22.45</v>
+        <v>22.43</v>
       </c>
       <c r="D2" t="n">
-        <v>22.53</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="3">
@@ -10054,13 +12742,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.53</v>
+        <v>22.61</v>
       </c>
       <c r="C3" t="n">
-        <v>22.25</v>
+        <v>22.76</v>
       </c>
       <c r="D3" t="n">
-        <v>22.37</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="4">
@@ -10068,13 +12756,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>21.95</v>
+        <v>22.01</v>
       </c>
       <c r="C4" t="n">
-        <v>22.02</v>
+        <v>21.94</v>
       </c>
       <c r="D4" t="n">
-        <v>21.91</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="5">
@@ -10082,13 +12770,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>22.63</v>
+        <v>22.46</v>
       </c>
       <c r="C5" t="n">
-        <v>22.46</v>
+        <v>22.73</v>
       </c>
       <c r="D5" t="n">
-        <v>22.55</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="6">
@@ -10096,13 +12784,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>22.38</v>
+        <v>22.41</v>
       </c>
       <c r="C6" t="n">
-        <v>22.19</v>
+        <v>22.31</v>
       </c>
       <c r="D6" t="n">
-        <v>22.45</v>
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.62</v>
       </c>
     </row>
   </sheetData>
@@ -10117,7 +12861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10152,13 +12896,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>21.47</v>
+        <v>21.37</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5</v>
+        <v>21.42</v>
       </c>
       <c r="D2" t="n">
-        <v>21.45</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="3">
@@ -10166,13 +12910,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>21.61</v>
+        <v>21.5</v>
       </c>
       <c r="C3" t="n">
-        <v>21.59</v>
+        <v>21.54</v>
       </c>
       <c r="D3" t="n">
-        <v>21.57</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="4">
@@ -10180,13 +12924,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>21.06</v>
+        <v>21.11</v>
       </c>
       <c r="C4" t="n">
-        <v>20.99</v>
+        <v>20.9</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="5">
@@ -10194,13 +12938,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>21.44</v>
+        <v>21.47</v>
       </c>
       <c r="C5" t="n">
-        <v>21.51</v>
+        <v>21.5</v>
       </c>
       <c r="D5" t="n">
-        <v>21.33</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="6">
@@ -10208,13 +12952,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>21.52</v>
+        <v>21.34</v>
       </c>
       <c r="C6" t="n">
         <v>21.31</v>
       </c>
       <c r="D6" t="n">
-        <v>21.34</v>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.64</v>
       </c>
     </row>
   </sheetData>
@@ -10229,7 +13029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10264,13 +13064,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="C2" t="n">
         <v>18.51</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>18.38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.61</v>
       </c>
     </row>
     <row r="3">
@@ -10278,13 +13078,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>19.56</v>
+        <v>19.54</v>
       </c>
       <c r="C3" t="n">
-        <v>19.54</v>
+        <v>19.57</v>
       </c>
       <c r="D3" t="n">
-        <v>19.58</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="4">
@@ -10292,13 +13092,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09</v>
+        <v>18.96</v>
       </c>
       <c r="C4" t="n">
-        <v>19.09</v>
+        <v>19.01</v>
       </c>
       <c r="D4" t="n">
-        <v>19.09</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="5">
@@ -10306,10 +13106,10 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>19.48</v>
+        <v>19.5</v>
       </c>
       <c r="C5" t="n">
-        <v>19.46</v>
+        <v>19.41</v>
       </c>
       <c r="D5" t="n">
         <v>19.39</v>
@@ -10320,13 +13120,69 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>18.27</v>
+        <v>18.43</v>
       </c>
       <c r="C6" t="n">
-        <v>18.36</v>
+        <v>18.37</v>
       </c>
       <c r="D6" t="n">
-        <v>18.25</v>
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.78</v>
       </c>
     </row>
   </sheetData>
@@ -10341,7 +13197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10401,16 +13257,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-48.88</v>
+        <v>-47.96</v>
       </c>
       <c r="D2" t="n">
-        <v>-55.44</v>
+        <v>-55.31</v>
       </c>
       <c r="E2" t="n">
-        <v>-51.52</v>
+        <v>-50.81</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.95</v>
+        <v>-54.79</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -10429,16 +13285,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-47.79</v>
+        <v>-47.77</v>
       </c>
       <c r="D3" t="n">
-        <v>-55.9</v>
+        <v>-55.91</v>
       </c>
       <c r="E3" t="n">
-        <v>-50.65</v>
+        <v>-50.54</v>
       </c>
       <c r="F3" t="n">
-        <v>-55.25</v>
+        <v>-55.29</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10457,16 +13313,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-45.51</v>
+        <v>-45.71</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.94</v>
+        <v>-55.9</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.99</v>
+        <v>-50.3</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.72</v>
+        <v>-55.61</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10485,16 +13341,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.88</v>
+        <v>-45.13</v>
       </c>
       <c r="D5" t="n">
-        <v>-55.17</v>
+        <v>-54.82</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.3</v>
+        <v>-49.39</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.68</v>
+        <v>-54.47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -10513,16 +13369,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.58</v>
+        <v>-47.04</v>
       </c>
       <c r="D6" t="n">
-        <v>-55.41</v>
+        <v>-55.22</v>
       </c>
       <c r="E6" t="n">
-        <v>-49.89</v>
+        <v>-50.49</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.74</v>
+        <v>-54.88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -10541,16 +13397,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-45.42</v>
+        <v>-46.56</v>
       </c>
       <c r="D7" t="n">
-        <v>-56.05</v>
+        <v>-56.2</v>
       </c>
       <c r="E7" t="n">
-        <v>-49.05</v>
+        <v>-50.61</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.8</v>
+        <v>-55.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10569,16 +13425,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-47.05</v>
+        <v>-46.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.21</v>
+        <v>-54.85</v>
       </c>
       <c r="E8" t="n">
-        <v>-50.6</v>
+        <v>-50.2</v>
       </c>
       <c r="F8" t="n">
-        <v>-54.56</v>
+        <v>-54.36</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10597,16 +13453,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.63</v>
+        <v>-45.69</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.07</v>
+        <v>-55.29</v>
       </c>
       <c r="E9" t="n">
-        <v>-48.97</v>
+        <v>-50.3</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.31</v>
+        <v>-54.66</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10625,16 +13481,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.75</v>
+        <v>-43.6</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.97</v>
+        <v>-54.47</v>
       </c>
       <c r="E10" t="n">
-        <v>-50.09</v>
+        <v>-49.1</v>
       </c>
       <c r="F10" t="n">
-        <v>-54.39</v>
+        <v>-53.95</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10653,16 +13509,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-48.4</v>
+        <v>-44.84</v>
       </c>
       <c r="D11" t="n">
-        <v>-55.49</v>
+        <v>-55.45</v>
       </c>
       <c r="E11" t="n">
-        <v>-50.68</v>
+        <v>-48.8</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.96</v>
+        <v>-54.95</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10681,16 +13537,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-49.3</v>
+        <v>-47.05</v>
       </c>
       <c r="D12" t="n">
-        <v>-56.28</v>
+        <v>-55.96</v>
       </c>
       <c r="E12" t="n">
-        <v>-51.47</v>
+        <v>-50</v>
       </c>
       <c r="F12" t="n">
-        <v>-55.51</v>
+        <v>-55.54</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -10709,16 +13565,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-43.73</v>
+        <v>-43.35</v>
       </c>
       <c r="D13" t="n">
-        <v>-57.12</v>
+        <v>-56.55</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.15</v>
+        <v>-47.08</v>
       </c>
       <c r="F13" t="n">
-        <v>-57.07</v>
+        <v>-56.63</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -10737,16 +13593,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-47.46</v>
+        <v>-44.06</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.44</v>
+        <v>-55.4</v>
       </c>
       <c r="E14" t="n">
-        <v>-50.82</v>
+        <v>-48.63</v>
       </c>
       <c r="F14" t="n">
-        <v>-54.82</v>
+        <v>-54.77</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -10765,16 +13621,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-45.06</v>
+        <v>-42.7</v>
       </c>
       <c r="D15" t="n">
-        <v>-55.08</v>
+        <v>-54.76</v>
       </c>
       <c r="E15" t="n">
-        <v>-50.54</v>
+        <v>-48.93</v>
       </c>
       <c r="F15" t="n">
-        <v>-54.44</v>
+        <v>-54.39</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -10793,21 +13649,357 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.52</v>
+        <v>-42.07</v>
       </c>
       <c r="D16" t="n">
-        <v>-55.09</v>
+        <v>-55.3</v>
       </c>
       <c r="E16" t="n">
-        <v>-47.7</v>
+        <v>-48.07</v>
       </c>
       <c r="F16" t="n">
-        <v>-54.86</v>
+        <v>-55.19</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-47.09</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-58.77</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-50.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-58.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-48.22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-58.65</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-51.48</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-57.84</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-46.07</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-59.45</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-49.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-59.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-36.42</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-53.91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-43.77</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-54.68</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-43.48</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-57.46</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-47.43</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-57.03</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-41.91</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-57.75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-46.37</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-58.18</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-43.75</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-57.52</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-48.05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-56.91</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-46.99</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-58.11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-49.11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-57.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-40.94</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-47.14</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-57.94</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-45.39</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-57.98</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-51.24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-57.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-44.77</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-57.61</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-48.79</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-57.02</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-45.57</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-58.01</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-50.05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-57.65</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
